--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/hoofdnaam/hoofdnaam.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/hoofdnaam/hoofdnaam.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,45 +410,60 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
+        <v>closeMatch</v>
+      </c>
+      <c r="D1" t="str">
+        <v>mappingRelation</v>
+      </c>
+      <c r="E1" t="str">
+        <v>semanticRelation</v>
+      </c>
+      <c r="F1" t="str">
+        <v>exactMatch</v>
+      </c>
+      <c r="G1" t="str">
         <v>dc\.identifier</v>
       </c>
-      <c r="D1" t="str">
+      <c r="H1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="I1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="E1" t="str">
-        <v>member</v>
-      </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
+        <v>notation</v>
+      </c>
+      <c r="K1" t="str">
+        <v>note</v>
+      </c>
+      <c r="L1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="G1" t="str">
-        <v>notation</v>
-      </c>
-      <c r="H1" t="str">
+      <c r="M1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="I1" t="str">
+      <c r="N1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/collection/hoofdnaam/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/AnthropogenicGeomorphologicFeatureTypeValue/dump</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.collection.hoofdnaam.hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ab|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ac|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ag|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/cb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ct|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/db|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/de|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ea|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ec|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ge|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ia|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/in|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mi|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/nn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ra|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sp|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/va|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/wa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xx|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ze|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu</v>
       </c>
       <c r="F2" t="str">
-        <v>Collectie van hoofdnaam.</v>
+        <v>null</v>
       </c>
       <c r="G2" t="str">
         <v>null</v>
@@ -457,3753 +472,8563 @@
         <v>null</v>
       </c>
       <c r="I2" t="str">
+        <v>null</v>
+      </c>
+      <c r="J2" t="str">
+        <v>null</v>
+      </c>
+      <c r="K2" t="str">
+        <v>null</v>
+      </c>
+      <c r="L2" t="str">
+        <v>null</v>
+      </c>
+      <c r="M2" t="str">
+        <v>null</v>
+      </c>
+      <c r="N2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aa</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/aggregate</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.aa</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st</v>
       </c>
       <c r="F3" t="str">
-        <v>amfiboliet</v>
+        <v>null</v>
       </c>
       <c r="G3" t="str">
-        <v>AA</v>
+        <v>null</v>
       </c>
       <c r="H3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I3" t="str">
+        <v>null</v>
+      </c>
+      <c r="J3" t="str">
+        <v>null</v>
+      </c>
+      <c r="K3" t="str">
+        <v>null</v>
+      </c>
+      <c r="L3" t="str">
+        <v>null</v>
+      </c>
+      <c r="M3" t="str">
+        <v>null</v>
+      </c>
+      <c r="N3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ab</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ab</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="E4" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="F4" t="str">
-        <v>andesiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="G4" t="str">
-        <v>AB</v>
+        <v>null</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I4" t="str">
+        <v>null</v>
+      </c>
+      <c r="J4" t="str">
+        <v>null</v>
+      </c>
+      <c r="K4" t="str">
+        <v>null</v>
+      </c>
+      <c r="L4" t="str">
+        <v>null</v>
+      </c>
+      <c r="M4" t="str">
+        <v>null</v>
+      </c>
+      <c r="N4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ac</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ac</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
       </c>
       <c r="E5" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
       </c>
       <c r="F5" t="str">
-        <v>anhydriet</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
       </c>
       <c r="G5" t="str">
-        <v>AC</v>
+        <v>null</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I5" t="str">
+        <v>null</v>
+      </c>
+      <c r="J5" t="str">
+        <v>null</v>
+      </c>
+      <c r="K5" t="str">
+        <v>null</v>
+      </c>
+      <c r="L5" t="str">
+        <v>null</v>
+      </c>
+      <c r="M5" t="str">
+        <v>null</v>
+      </c>
+      <c r="N5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/coal</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ad</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pk</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pk</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pk</v>
       </c>
       <c r="F6" t="str">
-        <v>ankeriet</v>
+        <v>null</v>
       </c>
       <c r="G6" t="str">
-        <v>AD</v>
+        <v>null</v>
       </c>
       <c r="H6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I6" t="str">
+        <v>null</v>
+      </c>
+      <c r="J6" t="str">
+        <v>null</v>
+      </c>
+      <c r="K6" t="str">
+        <v>null</v>
+      </c>
+      <c r="L6" t="str">
+        <v>null</v>
+      </c>
+      <c r="M6" t="str">
+        <v>null</v>
+      </c>
+      <c r="N6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ae</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="E7" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="F7" t="str">
-        <v>arkose</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="G7" t="str">
-        <v>AE</v>
+        <v>null</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I7" t="str">
+        <v>null</v>
+      </c>
+      <c r="J7" t="str">
+        <v>null</v>
+      </c>
+      <c r="K7" t="str">
+        <v>null</v>
+      </c>
+      <c r="L7" t="str">
+        <v>null</v>
+      </c>
+      <c r="M7" t="str">
+        <v>null</v>
+      </c>
+      <c r="N7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.af</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="E8" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="F8" t="str">
-        <v>afval</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="G8" t="str">
-        <v>AF</v>
+        <v>null</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I8" t="str">
+        <v>null</v>
+      </c>
+      <c r="J8" t="str">
+        <v>null</v>
+      </c>
+      <c r="K8" t="str">
+        <v>null</v>
+      </c>
+      <c r="L8" t="str">
+        <v>null</v>
+      </c>
+      <c r="M8" t="str">
+        <v>null</v>
+      </c>
+      <c r="N8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ag</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ag</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="E9" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="F9" t="str">
-        <v>as</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="G9" t="str">
-        <v>AG</v>
+        <v>null</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I9" t="str">
+        <v>null</v>
+      </c>
+      <c r="J9" t="str">
+        <v>null</v>
+      </c>
+      <c r="K9" t="str">
+        <v>null</v>
+      </c>
+      <c r="L9" t="str">
+        <v>null</v>
+      </c>
+      <c r="M9" t="str">
+        <v>null</v>
+      </c>
+      <c r="N9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.an</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
       </c>
       <c r="E10" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
       </c>
       <c r="F10" t="str">
-        <v>antropogeen niet vloeistofdicht</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
       </c>
       <c r="G10" t="str">
-        <v>AN</v>
+        <v>null</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I10" t="str">
+        <v>null</v>
+      </c>
+      <c r="J10" t="str">
+        <v>null</v>
+      </c>
+      <c r="K10" t="str">
+        <v>null</v>
+      </c>
+      <c r="L10" t="str">
+        <v>null</v>
+      </c>
+      <c r="M10" t="str">
+        <v>null</v>
+      </c>
+      <c r="N10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ar</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="E11" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="F11" t="str">
-        <v>areniet</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="G11" t="str">
-        <v>AR</v>
+        <v>null</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I11" t="str">
+        <v>null</v>
+      </c>
+      <c r="J11" t="str">
+        <v>null</v>
+      </c>
+      <c r="K11" t="str">
+        <v>null</v>
+      </c>
+      <c r="L11" t="str">
+        <v>null</v>
+      </c>
+      <c r="M11" t="str">
+        <v>null</v>
+      </c>
+      <c r="N11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.at</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
       </c>
       <c r="E12" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
       </c>
       <c r="F12" t="str">
-        <v>asfalt</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
       </c>
       <c r="G12" t="str">
-        <v>AT</v>
+        <v>null</v>
       </c>
       <c r="H12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I12" t="str">
+        <v>null</v>
+      </c>
+      <c r="J12" t="str">
+        <v>null</v>
+      </c>
+      <c r="K12" t="str">
+        <v>null</v>
+      </c>
+      <c r="L12" t="str">
+        <v>null</v>
+      </c>
+      <c r="M12" t="str">
+        <v>null</v>
+      </c>
+      <c r="N12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.av</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
       </c>
       <c r="E13" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
       </c>
       <c r="F13" t="str">
-        <v>antropogeen vloeistofdicht</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
       </c>
       <c r="G13" t="str">
-        <v>AV</v>
+        <v>null</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I13" t="str">
+        <v>null</v>
+      </c>
+      <c r="J13" t="str">
+        <v>null</v>
+      </c>
+      <c r="K13" t="str">
+        <v>null</v>
+      </c>
+      <c r="L13" t="str">
+        <v>null</v>
+      </c>
+      <c r="M13" t="str">
+        <v>null</v>
+      </c>
+      <c r="N13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.aw</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
       </c>
       <c r="D14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
       </c>
       <c r="E14" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
       </c>
       <c r="F14" t="str">
-        <v>antropogeen weinig vloeistofdicht</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
       </c>
       <c r="G14" t="str">
-        <v>AW</v>
+        <v>null</v>
       </c>
       <c r="H14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I14" t="str">
+        <v>null</v>
+      </c>
+      <c r="J14" t="str">
+        <v>null</v>
+      </c>
+      <c r="K14" t="str">
+        <v>null</v>
+      </c>
+      <c r="L14" t="str">
+        <v>null</v>
+      </c>
+      <c r="M14" t="str">
+        <v>null</v>
+      </c>
+      <c r="N14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/sandstone</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ba</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae</v>
       </c>
       <c r="D15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae</v>
       </c>
       <c r="E15" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae</v>
       </c>
       <c r="F15" t="str">
-        <v>basalt</v>
+        <v>null</v>
       </c>
       <c r="G15" t="str">
-        <v>BA</v>
+        <v>null</v>
       </c>
       <c r="H15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I15" t="str">
+        <v>null</v>
+      </c>
+      <c r="J15" t="str">
+        <v>null</v>
+      </c>
+      <c r="K15" t="str">
+        <v>null</v>
+      </c>
+      <c r="L15" t="str">
+        <v>null</v>
+      </c>
+      <c r="M15" t="str">
+        <v>null</v>
+      </c>
+      <c r="N15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bb</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
       </c>
       <c r="B16" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.bb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg</v>
       </c>
       <c r="E16" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg</v>
       </c>
       <c r="F16" t="str">
-        <v>bauxiet</v>
+        <v>null</v>
       </c>
       <c r="G16" t="str">
-        <v>BB</v>
+        <v>null</v>
       </c>
       <c r="H16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I16" t="str">
+        <v>null</v>
+      </c>
+      <c r="J16" t="str">
+        <v>null</v>
+      </c>
+      <c r="K16" t="str">
+        <v>null</v>
+      </c>
+      <c r="L16" t="str">
+        <v>null</v>
+      </c>
+      <c r="M16" t="str">
+        <v>null</v>
+      </c>
+      <c r="N16" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bc</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica</v>
       </c>
       <c r="B17" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.bc</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
       </c>
       <c r="D17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
       </c>
       <c r="E17" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
       </c>
       <c r="F17" t="str">
-        <v>bentoniet</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
       </c>
       <c r="G17" t="str">
-        <v>BC</v>
+        <v>null</v>
       </c>
       <c r="H17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I17" t="str">
+        <v>null</v>
+      </c>
+      <c r="J17" t="str">
+        <v>null</v>
+      </c>
+      <c r="K17" t="str">
+        <v>null</v>
+      </c>
+      <c r="L17" t="str">
+        <v>null</v>
+      </c>
+      <c r="M17" t="str">
+        <v>null</v>
+      </c>
+      <c r="N17" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite</v>
       </c>
       <c r="B18" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.bk</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="D18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="E18" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="F18" t="str">
-        <v>baksteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="G18" t="str">
-        <v>BK</v>
+        <v>null</v>
       </c>
       <c r="H18" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I18" t="str">
+        <v>null</v>
+      </c>
+      <c r="J18" t="str">
+        <v>null</v>
+      </c>
+      <c r="K18" t="str">
+        <v>null</v>
+      </c>
+      <c r="L18" t="str">
+        <v>null</v>
+      </c>
+      <c r="M18" t="str">
+        <v>null</v>
+      </c>
+      <c r="N18" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bs</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicConsolidatedMaterial</v>
       </c>
       <c r="B19" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.bs</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk</v>
       </c>
       <c r="D19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk</v>
       </c>
       <c r="E19" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk</v>
       </c>
       <c r="F19" t="str">
-        <v>blauwshist</v>
+        <v>null</v>
       </c>
       <c r="G19" t="str">
-        <v>BS</v>
+        <v>null</v>
       </c>
       <c r="H19" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I19" t="str">
+        <v>null</v>
+      </c>
+      <c r="J19" t="str">
+        <v>null</v>
+      </c>
+      <c r="K19" t="str">
+        <v>null</v>
+      </c>
+      <c r="L19" t="str">
+        <v>null</v>
+      </c>
+      <c r="M19" t="str">
+        <v>null</v>
+      </c>
+      <c r="N19" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="B20" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.bt</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="D20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="E20" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="F20" t="str">
-        <v>beton</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="G20" t="str">
-        <v>BT</v>
+        <v>null</v>
       </c>
       <c r="H20" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I20" t="str">
+        <v>null</v>
+      </c>
+      <c r="J20" t="str">
+        <v>null</v>
+      </c>
+      <c r="K20" t="str">
+        <v>null</v>
+      </c>
+      <c r="L20" t="str">
+        <v>null</v>
+      </c>
+      <c r="M20" t="str">
+        <v>null</v>
+      </c>
+      <c r="N20" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite</v>
       </c>
       <c r="B21" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ca</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="D21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="E21" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="F21" t="str">
-        <v>carbonaatfragmenten</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="G21" t="str">
-        <v>CA</v>
+        <v>null</v>
       </c>
       <c r="H21" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I21" t="str">
+        <v>null</v>
+      </c>
+      <c r="J21" t="str">
+        <v>null</v>
+      </c>
+      <c r="K21" t="str">
+        <v>null</v>
+      </c>
+      <c r="L21" t="str">
+        <v>null</v>
+      </c>
+      <c r="M21" t="str">
+        <v>null</v>
+      </c>
+      <c r="N21" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/cb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff</v>
       </c>
       <c r="B22" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.cb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
       </c>
       <c r="D22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
       </c>
       <c r="E22" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
       </c>
       <c r="F22" t="str">
-        <v>conglomeraat/breccie</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
       </c>
       <c r="G22" t="str">
-        <v>CB</v>
+        <v>null</v>
       </c>
       <c r="H22" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I22" t="str">
+        <v>null</v>
+      </c>
+      <c r="J22" t="str">
+        <v>null</v>
+      </c>
+      <c r="K22" t="str">
+        <v>null</v>
+      </c>
+      <c r="L22" t="str">
+        <v>null</v>
+      </c>
+      <c r="M22" t="str">
+        <v>null</v>
+      </c>
+      <c r="N22" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt</v>
       </c>
       <c r="B23" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.co</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="D23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="E23" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="F23" t="str">
-        <v>steenkool</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="G23" t="str">
-        <v>CO</v>
+        <v>null</v>
       </c>
       <c r="H23" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I23" t="str">
+        <v>null</v>
+      </c>
+      <c r="J23" t="str">
+        <v>null</v>
+      </c>
+      <c r="K23" t="str">
+        <v>null</v>
+      </c>
+      <c r="L23" t="str">
+        <v>null</v>
+      </c>
+      <c r="M23" t="str">
+        <v>null</v>
+      </c>
+      <c r="N23" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ct</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="B24" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ct</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at</v>
       </c>
       <c r="D24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at</v>
       </c>
       <c r="E24" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at</v>
       </c>
       <c r="F24" t="str">
-        <v>chert (gebande)</v>
+        <v>null</v>
       </c>
       <c r="G24" t="str">
-        <v>CT</v>
+        <v>null</v>
       </c>
       <c r="H24" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I24" t="str">
+        <v>null</v>
+      </c>
+      <c r="J24" t="str">
+        <v>null</v>
+      </c>
+      <c r="K24" t="str">
+        <v>null</v>
+      </c>
+      <c r="L24" t="str">
+        <v>null</v>
+      </c>
+      <c r="M24" t="str">
+        <v>null</v>
+      </c>
+      <c r="N24" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal</v>
       </c>
       <c r="B25" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.da</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="D25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="E25" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="F25" t="str">
-        <v>daciet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="G25" t="str">
-        <v>DA</v>
+        <v>null</v>
       </c>
       <c r="H25" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I25" t="str">
+        <v>null</v>
+      </c>
+      <c r="J25" t="str">
+        <v>null</v>
+      </c>
+      <c r="K25" t="str">
+        <v>null</v>
+      </c>
+      <c r="L25" t="str">
+        <v>null</v>
+      </c>
+      <c r="M25" t="str">
+        <v>null</v>
+      </c>
+      <c r="N25" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/db</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
       </c>
       <c r="B26" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.db</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb</v>
       </c>
       <c r="D26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb</v>
       </c>
       <c r="E26" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb</v>
       </c>
       <c r="F26" t="str">
-        <v>diatomiet</v>
+        <v>null</v>
       </c>
       <c r="G26" t="str">
-        <v>DB</v>
+        <v>null</v>
       </c>
       <c r="H26" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I26" t="str">
+        <v>null</v>
+      </c>
+      <c r="J26" t="str">
+        <v>null</v>
+      </c>
+      <c r="K26" t="str">
+        <v>null</v>
+      </c>
+      <c r="L26" t="str">
+        <v>null</v>
+      </c>
+      <c r="M26" t="str">
+        <v>null</v>
+      </c>
+      <c r="N26" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment</v>
       </c>
       <c r="B27" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="D27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="E27" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="F27" t="str">
-        <v>dioriet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="G27" t="str">
-        <v>DC</v>
+        <v>null</v>
       </c>
       <c r="H27" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I27" t="str">
+        <v>null</v>
+      </c>
+      <c r="J27" t="str">
+        <v>null</v>
+      </c>
+      <c r="K27" t="str">
+        <v>null</v>
+      </c>
+      <c r="L27" t="str">
+        <v>null</v>
+      </c>
+      <c r="M27" t="str">
+        <v>null</v>
+      </c>
+      <c r="N27" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone</v>
       </c>
       <c r="B28" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
       </c>
       <c r="D28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
       </c>
       <c r="E28" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
       </c>
       <c r="F28" t="str">
-        <v>dolerriet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
       </c>
       <c r="G28" t="str">
-        <v>DD</v>
+        <v>null</v>
       </c>
       <c r="H28" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I28" t="str">
+        <v>null</v>
+      </c>
+      <c r="J28" t="str">
+        <v>null</v>
+      </c>
+      <c r="K28" t="str">
+        <v>null</v>
+      </c>
+      <c r="L28" t="str">
+        <v>null</v>
+      </c>
+      <c r="M28" t="str">
+        <v>null</v>
+      </c>
+      <c r="N28" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/de</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
       </c>
       <c r="B29" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.de</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc</v>
       </c>
       <c r="D29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc</v>
       </c>
       <c r="E29" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc</v>
       </c>
       <c r="F29" t="str">
-        <v>duniet</v>
+        <v>null</v>
       </c>
       <c r="G29" t="str">
-        <v>DE</v>
+        <v>null</v>
       </c>
       <c r="H29" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I29" t="str">
+        <v>null</v>
+      </c>
+      <c r="J29" t="str">
+        <v>null</v>
+      </c>
+      <c r="K29" t="str">
+        <v>null</v>
+      </c>
+      <c r="L29" t="str">
+        <v>null</v>
+      </c>
+      <c r="M29" t="str">
+        <v>null</v>
+      </c>
+      <c r="N29" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryRock</v>
       </c>
       <c r="B30" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk</v>
       </c>
       <c r="D30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk</v>
       </c>
       <c r="E30" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk</v>
       </c>
       <c r="F30" t="str">
-        <v>dolom kalksteen</v>
+        <v>null</v>
       </c>
       <c r="G30" t="str">
-        <v>DK</v>
+        <v>null</v>
       </c>
       <c r="H30" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I30" t="str">
+        <v>null</v>
+      </c>
+      <c r="J30" t="str">
+        <v>null</v>
+      </c>
+      <c r="K30" t="str">
+        <v>null</v>
+      </c>
+      <c r="L30" t="str">
+        <v>null</v>
+      </c>
+      <c r="M30" t="str">
+        <v>null</v>
+      </c>
+      <c r="N30" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone</v>
       </c>
       <c r="B31" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
       </c>
       <c r="D31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
       </c>
       <c r="E31" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
       </c>
       <c r="F31" t="str">
-        <v>dolomiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
       </c>
       <c r="G31" t="str">
-        <v>DL</v>
+        <v>null</v>
       </c>
       <c r="H31" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I31" t="str">
+        <v>null</v>
+      </c>
+      <c r="J31" t="str">
+        <v>null</v>
+      </c>
+      <c r="K31" t="str">
+        <v>null</v>
+      </c>
+      <c r="L31" t="str">
+        <v>null</v>
+      </c>
+      <c r="M31" t="str">
+        <v>null</v>
+      </c>
+      <c r="N31" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ea</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk</v>
       </c>
       <c r="B32" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C32" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ea</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
       </c>
       <c r="D32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
       </c>
       <c r="E32" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
       </c>
       <c r="F32" t="str">
-        <v>evaporiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
       </c>
       <c r="G32" t="str">
-        <v>EA</v>
+        <v>null</v>
       </c>
       <c r="H32" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I32" t="str">
+        <v>null</v>
+      </c>
+      <c r="J32" t="str">
+        <v>null</v>
+      </c>
+      <c r="K32" t="str">
+        <v>null</v>
+      </c>
+      <c r="L32" t="str">
+        <v>null</v>
+      </c>
+      <c r="M32" t="str">
+        <v>null</v>
+      </c>
+      <c r="N32" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ec</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock</v>
       </c>
       <c r="B33" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C33" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ec</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="D33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="E33" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="F33" t="str">
-        <v>eclogiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="G33" t="str">
-        <v>EC</v>
+        <v>null</v>
       </c>
       <c r="H33" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I33" t="str">
+        <v>null</v>
+      </c>
+      <c r="J33" t="str">
+        <v>null</v>
+      </c>
+      <c r="K33" t="str">
+        <v>null</v>
+      </c>
+      <c r="L33" t="str">
+        <v>null</v>
+      </c>
+      <c r="M33" t="str">
+        <v>null</v>
+      </c>
+      <c r="N33" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fa</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay</v>
       </c>
       <c r="B34" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C34" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fa</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="D34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="E34" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="F34" t="str">
-        <v>fosforiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="G34" t="str">
-        <v>FA</v>
+        <v>null</v>
       </c>
       <c r="H34" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I34" t="str">
+        <v>null</v>
+      </c>
+      <c r="J34" t="str">
+        <v>null</v>
+      </c>
+      <c r="K34" t="str">
+        <v>null</v>
+      </c>
+      <c r="L34" t="str">
+        <v>null</v>
+      </c>
+      <c r="M34" t="str">
+        <v>null</v>
+      </c>
+      <c r="N34" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone</v>
       </c>
       <c r="B35" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C35" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fe</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
       </c>
       <c r="D35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
       </c>
       <c r="E35" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
       </c>
       <c r="F35" t="str">
-        <v>ijzer</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
       </c>
       <c r="G35" t="str">
-        <v>FE</v>
+        <v>null</v>
       </c>
       <c r="H35" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I35" t="str">
+        <v>null</v>
+      </c>
+      <c r="J35" t="str">
+        <v>null</v>
+      </c>
+      <c r="K35" t="str">
+        <v>null</v>
+      </c>
+      <c r="L35" t="str">
+        <v>null</v>
+      </c>
+      <c r="M35" t="str">
+        <v>null</v>
+      </c>
+      <c r="N35" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete</v>
       </c>
       <c r="B36" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C36" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="D36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="E36" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="F36" t="str">
-        <v>fijn grind</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="G36" t="str">
-        <v>FG</v>
+        <v>null</v>
       </c>
       <c r="H36" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I36" t="str">
+        <v>null</v>
+      </c>
+      <c r="J36" t="str">
+        <v>null</v>
+      </c>
+      <c r="K36" t="str">
+        <v>null</v>
+      </c>
+      <c r="L36" t="str">
+        <v>null</v>
+      </c>
+      <c r="M36" t="str">
+        <v>null</v>
+      </c>
+      <c r="N36" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate</v>
       </c>
       <c r="B37" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C37" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fo</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="D37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="E37" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="F37" t="str">
-        <v>fossielen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="G37" t="str">
-        <v>FO</v>
+        <v>null</v>
       </c>
       <c r="H37" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I37" t="str">
+        <v>null</v>
+      </c>
+      <c r="J37" t="str">
+        <v>null</v>
+      </c>
+      <c r="K37" t="str">
+        <v>null</v>
+      </c>
+      <c r="L37" t="str">
+        <v>null</v>
+      </c>
+      <c r="M37" t="str">
+        <v>null</v>
+      </c>
+      <c r="N37" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite</v>
       </c>
       <c r="B38" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C38" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fy</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="D38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="E38" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="F38" t="str">
-        <v>fylliet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="G38" t="str">
-        <v>FY</v>
+        <v>null</v>
       </c>
       <c r="H38" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I38" t="str">
+        <v>null</v>
+      </c>
+      <c r="J38" t="str">
+        <v>null</v>
+      </c>
+      <c r="K38" t="str">
+        <v>null</v>
+      </c>
+      <c r="L38" t="str">
+        <v>null</v>
+      </c>
+      <c r="M38" t="str">
+        <v>null</v>
+      </c>
+      <c r="N38" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite</v>
       </c>
       <c r="B39" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C39" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fz</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="D39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="E39" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="F39" t="str">
-        <v>fijn zand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="G39" t="str">
-        <v>FZ</v>
+        <v>null</v>
       </c>
       <c r="H39" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I39" t="str">
+        <v>null</v>
+      </c>
+      <c r="J39" t="str">
+        <v>null</v>
+      </c>
+      <c r="K39" t="str">
+        <v>null</v>
+      </c>
+      <c r="L39" t="str">
+        <v>null</v>
+      </c>
+      <c r="M39" t="str">
+        <v>null</v>
+      </c>
+      <c r="N39" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock</v>
       </c>
       <c r="B40" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C40" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ga</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="D40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="E40" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="F40" t="str">
-        <v>geroerd / gestoord</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="G40" t="str">
-        <v>GA</v>
+        <v>null</v>
       </c>
       <c r="H40" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I40" t="str">
+        <v>null</v>
+      </c>
+      <c r="J40" t="str">
+        <v>null</v>
+      </c>
+      <c r="K40" t="str">
+        <v>null</v>
+      </c>
+      <c r="L40" t="str">
+        <v>null</v>
+      </c>
+      <c r="M40" t="str">
+        <v>null</v>
+      </c>
+      <c r="N40" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite</v>
       </c>
       <c r="B41" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C41" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="D41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="E41" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="F41" t="str">
-        <v>gabbro</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="G41" t="str">
-        <v>GB</v>
+        <v>null</v>
       </c>
       <c r="H41" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I41" t="str">
+        <v>null</v>
+      </c>
+      <c r="J41" t="str">
+        <v>null</v>
+      </c>
+      <c r="K41" t="str">
+        <v>null</v>
+      </c>
+      <c r="L41" t="str">
+        <v>null</v>
+      </c>
+      <c r="M41" t="str">
+        <v>null</v>
+      </c>
+      <c r="N41" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite</v>
       </c>
       <c r="B42" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C42" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="D42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="E42" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="F42" t="str">
-        <v>gips</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="G42" t="str">
-        <v>GC</v>
+        <v>null</v>
       </c>
       <c r="H42" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I42" t="str">
+        <v>null</v>
+      </c>
+      <c r="J42" t="str">
+        <v>null</v>
+      </c>
+      <c r="K42" t="str">
+        <v>null</v>
+      </c>
+      <c r="L42" t="str">
+        <v>null</v>
+      </c>
+      <c r="M42" t="str">
+        <v>null</v>
+      </c>
+      <c r="N42" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro</v>
       </c>
       <c r="B43" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C43" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="D43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="E43" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="F43" t="str">
-        <v>gneiss</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="G43" t="str">
-        <v>GD</v>
+        <v>null</v>
       </c>
       <c r="H43" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I43" t="str">
+        <v>null</v>
+      </c>
+      <c r="J43" t="str">
+        <v>null</v>
+      </c>
+      <c r="K43" t="str">
+        <v>null</v>
+      </c>
+      <c r="L43" t="str">
+        <v>null</v>
+      </c>
+      <c r="M43" t="str">
+        <v>null</v>
+      </c>
+      <c r="N43" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ge</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone</v>
       </c>
       <c r="B44" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C44" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ge</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
       </c>
       <c r="D44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
       </c>
       <c r="E44" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
       </c>
       <c r="F44" t="str">
-        <v>graniet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
       </c>
       <c r="G44" t="str">
-        <v>GE</v>
+        <v>null</v>
       </c>
       <c r="H44" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I44" t="str">
+        <v>null</v>
+      </c>
+      <c r="J44" t="str">
+        <v>null</v>
+      </c>
+      <c r="K44" t="str">
+        <v>null</v>
+      </c>
+      <c r="L44" t="str">
+        <v>null</v>
+      </c>
+      <c r="M44" t="str">
+        <v>null</v>
+      </c>
+      <c r="N44" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gf</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss</v>
       </c>
       <c r="B45" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C45" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gf</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="D45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="E45" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="F45" t="str">
-        <v>granodioriet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="G45" t="str">
-        <v>GF</v>
+        <v>null</v>
       </c>
       <c r="H45" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I45" t="str">
+        <v>null</v>
+      </c>
+      <c r="J45" t="str">
+        <v>null</v>
+      </c>
+      <c r="K45" t="str">
+        <v>null</v>
+      </c>
+      <c r="L45" t="str">
+        <v>null</v>
+      </c>
+      <c r="M45" t="str">
+        <v>null</v>
+      </c>
+      <c r="N45" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite</v>
       </c>
       <c r="B46" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C46" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="D46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="E46" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="F46" t="str">
-        <v>grof grind</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="G46" t="str">
-        <v>GG</v>
+        <v>null</v>
       </c>
       <c r="H46" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I46" t="str">
+        <v>null</v>
+      </c>
+      <c r="J46" t="str">
+        <v>null</v>
+      </c>
+      <c r="K46" t="str">
+        <v>null</v>
+      </c>
+      <c r="L46" t="str">
+        <v>null</v>
+      </c>
+      <c r="M46" t="str">
+        <v>null</v>
+      </c>
+      <c r="N46" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite</v>
       </c>
       <c r="B47" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C47" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gh</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="D47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="E47" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="F47" t="str">
-        <v>groenshist</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="G47" t="str">
-        <v>GH</v>
+        <v>null</v>
       </c>
       <c r="H47" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I47" t="str">
+        <v>null</v>
+      </c>
+      <c r="J47" t="str">
+        <v>null</v>
+      </c>
+      <c r="K47" t="str">
+        <v>null</v>
+      </c>
+      <c r="L47" t="str">
+        <v>null</v>
+      </c>
+      <c r="M47" t="str">
+        <v>null</v>
+      </c>
+      <c r="N47" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="B48" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C48" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gi</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
       </c>
       <c r="D48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
       </c>
       <c r="E48" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
       </c>
       <c r="F48" t="str">
-        <v>glimmers</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
       </c>
       <c r="G48" t="str">
-        <v>GI</v>
+        <v>null</v>
       </c>
       <c r="H48" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I48" t="str">
+        <v>null</v>
+      </c>
+      <c r="J48" t="str">
+        <v>null</v>
+      </c>
+      <c r="K48" t="str">
+        <v>null</v>
+      </c>
+      <c r="L48" t="str">
+        <v>null</v>
+      </c>
+      <c r="M48" t="str">
+        <v>null</v>
+      </c>
+      <c r="N48" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite</v>
       </c>
       <c r="B49" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C49" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="D49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="E49" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="F49" t="str">
-        <v>glauconiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="G49" t="str">
-        <v>GL</v>
+        <v>null</v>
       </c>
       <c r="H49" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I49" t="str">
+        <v>null</v>
+      </c>
+      <c r="J49" t="str">
+        <v>null</v>
+      </c>
+      <c r="K49" t="str">
+        <v>null</v>
+      </c>
+      <c r="L49" t="str">
+        <v>null</v>
+      </c>
+      <c r="M49" t="str">
+        <v>null</v>
+      </c>
+      <c r="N49" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousMaterial</v>
       </c>
       <c r="B50" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C50" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so</v>
       </c>
       <c r="D50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so</v>
       </c>
       <c r="E50" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so</v>
       </c>
       <c r="F50" t="str">
-        <v>gespleten metamorf</v>
+        <v>null</v>
       </c>
       <c r="G50" t="str">
-        <v>GM</v>
+        <v>null</v>
       </c>
       <c r="H50" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I50" t="str">
+        <v>null</v>
+      </c>
+      <c r="J50" t="str">
+        <v>null</v>
+      </c>
+      <c r="K50" t="str">
+        <v>null</v>
+      </c>
+      <c r="L50" t="str">
+        <v>null</v>
+      </c>
+      <c r="M50" t="str">
+        <v>null</v>
+      </c>
+      <c r="N50" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
       </c>
       <c r="B51" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C51" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gs</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vg</v>
       </c>
       <c r="D51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vg</v>
       </c>
       <c r="E51" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vg</v>
       </c>
       <c r="F51" t="str">
-        <v>groensteen</v>
+        <v>null</v>
       </c>
       <c r="G51" t="str">
-        <v>GS</v>
+        <v>null</v>
       </c>
       <c r="H51" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I51" t="str">
+        <v>null</v>
+      </c>
+      <c r="J51" t="str">
+        <v>null</v>
+      </c>
+      <c r="K51" t="str">
+        <v>null</v>
+      </c>
+      <c r="L51" t="str">
+        <v>null</v>
+      </c>
+      <c r="M51" t="str">
+        <v>null</v>
+      </c>
+      <c r="N51" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite</v>
       </c>
       <c r="B52" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C52" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gz</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="D52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="E52" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="F52" t="str">
-        <v>grof zand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="G52" t="str">
-        <v>GZ</v>
+        <v>null</v>
       </c>
       <c r="H52" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I52" t="str">
+        <v>null</v>
+      </c>
+      <c r="J52" t="str">
+        <v>null</v>
+      </c>
+      <c r="K52" t="str">
+        <v>null</v>
+      </c>
+      <c r="L52" t="str">
+        <v>null</v>
+      </c>
+      <c r="M52" t="str">
+        <v>null</v>
+      </c>
+      <c r="N52" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSediment</v>
       </c>
       <c r="B53" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C53" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ha</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sd</v>
       </c>
       <c r="D53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sd</v>
       </c>
       <c r="E53" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sd</v>
       </c>
       <c r="F53" t="str">
-        <v>haliet</v>
+        <v>null</v>
       </c>
       <c r="G53" t="str">
-        <v>HA</v>
+        <v>null</v>
       </c>
       <c r="H53" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I53" t="str">
+        <v>null</v>
+      </c>
+      <c r="J53" t="str">
+        <v>null</v>
+      </c>
+      <c r="K53" t="str">
+        <v>null</v>
+      </c>
+      <c r="L53" t="str">
+        <v>null</v>
+      </c>
+      <c r="M53" t="str">
+        <v>null</v>
+      </c>
+      <c r="N53" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
       </c>
       <c r="B54" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C54" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io</v>
       </c>
       <c r="D54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io</v>
       </c>
       <c r="E54" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io</v>
       </c>
       <c r="F54" t="str">
-        <v>hematiet</v>
+        <v>null</v>
       </c>
       <c r="G54" t="str">
-        <v>HB</v>
+        <v>null</v>
       </c>
       <c r="H54" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I54" t="str">
+        <v>null</v>
+      </c>
+      <c r="J54" t="str">
+        <v>null</v>
+      </c>
+      <c r="K54" t="str">
+        <v>null</v>
+      </c>
+      <c r="L54" t="str">
+        <v>null</v>
+      </c>
+      <c r="M54" t="str">
+        <v>null</v>
+      </c>
+      <c r="N54" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite</v>
       </c>
       <c r="B55" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C55" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
       </c>
       <c r="D55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
       </c>
       <c r="E55" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
       </c>
       <c r="F55" t="str">
-        <v>houtskool</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
       </c>
       <c r="G55" t="str">
-        <v>HC</v>
+        <v>null</v>
       </c>
       <c r="H55" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I55" t="str">
+        <v>null</v>
+      </c>
+      <c r="J55" t="str">
+        <v>null</v>
+      </c>
+      <c r="K55" t="str">
+        <v>null</v>
+      </c>
+      <c r="L55" t="str">
+        <v>null</v>
+      </c>
+      <c r="M55" t="str">
+        <v>null</v>
+      </c>
+      <c r="N55" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone</v>
       </c>
       <c r="B56" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C56" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
       </c>
       <c r="D56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
       </c>
       <c r="E56" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
       </c>
       <c r="F56" t="str">
-        <v>hornfels</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
       </c>
       <c r="G56" t="str">
-        <v>HD</v>
+        <v>null</v>
       </c>
       <c r="H56" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I56" t="str">
+        <v>null</v>
+      </c>
+      <c r="J56" t="str">
+        <v>null</v>
+      </c>
+      <c r="K56" t="str">
+        <v>null</v>
+      </c>
+      <c r="L56" t="str">
+        <v>null</v>
+      </c>
+      <c r="M56" t="str">
+        <v>null</v>
+      </c>
+      <c r="N56" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble</v>
       </c>
       <c r="B57" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C57" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ht</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
       </c>
       <c r="D57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
       </c>
       <c r="E57" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
       </c>
       <c r="F57" t="str">
-        <v>houtresten</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
       </c>
       <c r="G57" t="str">
-        <v>HT</v>
+        <v>null</v>
       </c>
       <c r="H57" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I57" t="str">
+        <v>null</v>
+      </c>
+      <c r="J57" t="str">
+        <v>null</v>
+      </c>
+      <c r="K57" t="str">
+        <v>null</v>
+      </c>
+      <c r="L57" t="str">
+        <v>null</v>
+      </c>
+      <c r="M57" t="str">
+        <v>null</v>
+      </c>
+      <c r="N57" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
       </c>
       <c r="B58" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hu</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
       </c>
       <c r="D58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
       </c>
       <c r="E58" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
       </c>
       <c r="F58" t="str">
-        <v>humus</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
       </c>
       <c r="G58" t="str">
-        <v>HU</v>
+        <v>null</v>
       </c>
       <c r="H58" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I58" t="str">
+        <v>null</v>
+      </c>
+      <c r="J58" t="str">
+        <v>null</v>
+      </c>
+      <c r="K58" t="str">
+        <v>null</v>
+      </c>
+      <c r="L58" t="str">
+        <v>null</v>
+      </c>
+      <c r="M58" t="str">
+        <v>null</v>
+      </c>
+      <c r="N58" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ia</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist</v>
       </c>
       <c r="B59" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C59" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ia</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
       </c>
       <c r="D59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
       </c>
       <c r="E59" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
       </c>
       <c r="F59" t="str">
-        <v>ijzerooliet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
       </c>
       <c r="G59" t="str">
-        <v>IA</v>
+        <v>null</v>
       </c>
       <c r="H59" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I59" t="str">
+        <v>null</v>
+      </c>
+      <c r="J59" t="str">
+        <v>null</v>
+      </c>
+      <c r="K59" t="str">
+        <v>null</v>
+      </c>
+      <c r="L59" t="str">
+        <v>null</v>
+      </c>
+      <c r="M59" t="str">
+        <v>null</v>
+      </c>
+      <c r="N59" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/in</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock</v>
       </c>
       <c r="B60" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C60" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.in</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
       </c>
       <c r="D60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
       </c>
       <c r="E60" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
       </c>
       <c r="F60" t="str">
-        <v>intrusief gesteente</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
       </c>
       <c r="G60" t="str">
-        <v>IN</v>
+        <v>null</v>
       </c>
       <c r="H60" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I60" t="str">
+        <v>null</v>
+      </c>
+      <c r="J60" t="str">
+        <v>null</v>
+      </c>
+      <c r="K60" t="str">
+        <v>null</v>
+      </c>
+      <c r="L60" t="str">
+        <v>null</v>
+      </c>
+      <c r="M60" t="str">
+        <v>null</v>
+      </c>
+      <c r="N60" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/organicRichSedimentaryMaterial</v>
       </c>
       <c r="B61" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C61" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ka</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl</v>
       </c>
       <c r="D61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl</v>
       </c>
       <c r="E61" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl</v>
       </c>
       <c r="F61" t="str">
-        <v>kalk</v>
+        <v>null</v>
       </c>
       <c r="G61" t="str">
-        <v>KA</v>
+        <v>null</v>
       </c>
       <c r="H61" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I61" t="str">
+        <v>null</v>
+      </c>
+      <c r="J61" t="str">
+        <v>null</v>
+      </c>
+      <c r="K61" t="str">
+        <v>null</v>
+      </c>
+      <c r="L61" t="str">
+        <v>null</v>
+      </c>
+      <c r="M61" t="str">
+        <v>null</v>
+      </c>
+      <c r="N61" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat</v>
       </c>
       <c r="B62" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C62" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
       </c>
       <c r="D62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
       </c>
       <c r="E62" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
       </c>
       <c r="F62" t="str">
-        <v>kalksteenbreccie</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
       </c>
       <c r="G62" t="str">
-        <v>KB</v>
+        <v>null</v>
       </c>
       <c r="H62" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I62" t="str">
+        <v>null</v>
+      </c>
+      <c r="J62" t="str">
+        <v>null</v>
+      </c>
+      <c r="K62" t="str">
+        <v>null</v>
+      </c>
+      <c r="L62" t="str">
+        <v>null</v>
+      </c>
+      <c r="M62" t="str">
+        <v>null</v>
+      </c>
+      <c r="N62" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite</v>
       </c>
       <c r="B63" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C63" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="D63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="E63" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="F63" t="str">
-        <v>kalkschiefer</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="G63" t="str">
-        <v>KC</v>
+        <v>null</v>
       </c>
       <c r="H63" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I63" t="str">
+        <v>null</v>
+      </c>
+      <c r="J63" t="str">
+        <v>null</v>
+      </c>
+      <c r="K63" t="str">
+        <v>null</v>
+      </c>
+      <c r="L63" t="str">
+        <v>null</v>
+      </c>
+      <c r="M63" t="str">
+        <v>null</v>
+      </c>
+      <c r="N63" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite</v>
       </c>
       <c r="B64" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C64" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="D64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="E64" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="F64" t="str">
-        <v>klei</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="G64" t="str">
-        <v>KL</v>
+        <v>null</v>
       </c>
       <c r="H64" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I64" t="str">
+        <v>null</v>
+      </c>
+      <c r="J64" t="str">
+        <v>null</v>
+      </c>
+      <c r="K64" t="str">
+        <v>null</v>
+      </c>
+      <c r="L64" t="str">
+        <v>null</v>
+      </c>
+      <c r="M64" t="str">
+        <v>null</v>
+      </c>
+      <c r="N64" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite</v>
       </c>
       <c r="B65" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C65" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ko</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
       </c>
       <c r="D65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
       </c>
       <c r="E65" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
       </c>
       <c r="F65" t="str">
-        <v>komatiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
       </c>
       <c r="G65" t="str">
-        <v>KO</v>
+        <v>null</v>
       </c>
       <c r="H65" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I65" t="str">
+        <v>null</v>
+      </c>
+      <c r="J65" t="str">
+        <v>null</v>
+      </c>
+      <c r="K65" t="str">
+        <v>null</v>
+      </c>
+      <c r="L65" t="str">
+        <v>null</v>
+      </c>
+      <c r="M65" t="str">
+        <v>null</v>
+      </c>
+      <c r="N65" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/residualMaterial</v>
       </c>
       <c r="B66" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C66" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kr</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv</v>
       </c>
       <c r="D66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv</v>
       </c>
       <c r="E66" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv</v>
       </c>
       <c r="F66" t="str">
-        <v>krijt</v>
+        <v>null</v>
       </c>
       <c r="G66" t="str">
-        <v>KR</v>
+        <v>null</v>
       </c>
       <c r="H66" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I66" t="str">
+        <v>null</v>
+      </c>
+      <c r="J66" t="str">
+        <v>null</v>
+      </c>
+      <c r="K66" t="str">
+        <v>null</v>
+      </c>
+      <c r="L66" t="str">
+        <v>null</v>
+      </c>
+      <c r="M66" t="str">
+        <v>null</v>
+      </c>
+      <c r="N66" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock</v>
       </c>
       <c r="B67" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C67" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ks</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
       </c>
       <c r="D67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
       </c>
       <c r="E67" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
       </c>
       <c r="F67" t="str">
-        <v>kalksteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
       </c>
       <c r="G67" t="str">
-        <v>KS</v>
+        <v>null</v>
       </c>
       <c r="H67" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I67" t="str">
+        <v>null</v>
+      </c>
+      <c r="J67" t="str">
+        <v>null</v>
+      </c>
+      <c r="K67" t="str">
+        <v>null</v>
+      </c>
+      <c r="L67" t="str">
+        <v>null</v>
+      </c>
+      <c r="M67" t="str">
+        <v>null</v>
+      </c>
+      <c r="N67" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt</v>
       </c>
       <c r="B68" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C68" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kt</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="D68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="E68" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="F68" t="str">
-        <v>kleisteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="G68" t="str">
-        <v>KT</v>
+        <v>null</v>
       </c>
       <c r="H68" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I68" t="str">
+        <v>null</v>
+      </c>
+      <c r="J68" t="str">
+        <v>null</v>
+      </c>
+      <c r="K68" t="str">
+        <v>null</v>
+      </c>
+      <c r="L68" t="str">
+        <v>null</v>
+      </c>
+      <c r="M68" t="str">
+        <v>null</v>
+      </c>
+      <c r="N68" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="B69" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C69" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kw</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
       </c>
       <c r="D69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
       </c>
       <c r="E69" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
       </c>
       <c r="F69" t="str">
-        <v>kwartsiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
       </c>
       <c r="G69" t="str">
-        <v>KW</v>
+        <v>null</v>
       </c>
       <c r="H69" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I69" t="str">
+        <v>null</v>
+      </c>
+      <c r="J69" t="str">
+        <v>null</v>
+      </c>
+      <c r="K69" t="str">
+        <v>null</v>
+      </c>
+      <c r="L69" t="str">
+        <v>null</v>
+      </c>
+      <c r="M69" t="str">
+        <v>null</v>
+      </c>
+      <c r="N69" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
       </c>
       <c r="B70" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C70" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.la</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps</v>
       </c>
       <c r="D70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps</v>
       </c>
       <c r="E70" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps</v>
       </c>
       <c r="F70" t="str">
-        <v>lateriet</v>
+        <v>null</v>
       </c>
       <c r="G70" t="str">
-        <v>LA</v>
+        <v>null</v>
       </c>
       <c r="H70" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I70" t="str">
+        <v>null</v>
+      </c>
+      <c r="J70" t="str">
+        <v>null</v>
+      </c>
+      <c r="K70" t="str">
+        <v>null</v>
+      </c>
+      <c r="L70" t="str">
+        <v>null</v>
+      </c>
+      <c r="M70" t="str">
+        <v>null</v>
+      </c>
+      <c r="N70" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist</v>
       </c>
       <c r="B71" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C71" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.le</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
       </c>
       <c r="D71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
       </c>
       <c r="E71" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
       </c>
       <c r="F71" t="str">
-        <v>leem</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
       </c>
       <c r="G71" t="str">
-        <v>LE</v>
+        <v>null</v>
       </c>
       <c r="H71" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I71" t="str">
+        <v>null</v>
+      </c>
+      <c r="J71" t="str">
+        <v>null</v>
+      </c>
+      <c r="K71" t="str">
+        <v>null</v>
+      </c>
+      <c r="L71" t="str">
+        <v>null</v>
+      </c>
+      <c r="M71" t="str">
+        <v>null</v>
+      </c>
+      <c r="N71" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial</v>
       </c>
       <c r="B72" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C72" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.lg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
       </c>
       <c r="D72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
       </c>
       <c r="E72" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
       </c>
       <c r="F72" t="str">
-        <v>ligniet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
       </c>
       <c r="G72" t="str">
-        <v>LG</v>
+        <v>null</v>
       </c>
       <c r="H72" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I72" t="str">
+        <v>null</v>
+      </c>
+      <c r="J72" t="str">
+        <v>null</v>
+      </c>
+      <c r="K72" t="str">
+        <v>null</v>
+      </c>
+      <c r="L72" t="str">
+        <v>null</v>
+      </c>
+      <c r="M72" t="str">
+        <v>null</v>
+      </c>
+      <c r="N72" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale</v>
       </c>
       <c r="B73" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C73" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.li</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
       </c>
       <c r="D73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
       </c>
       <c r="E73" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
       </c>
       <c r="F73" t="str">
-        <v>limoniet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
       </c>
       <c r="G73" t="str">
-        <v>LI</v>
+        <v>null</v>
       </c>
       <c r="H73" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I73" t="str">
+        <v>null</v>
+      </c>
+      <c r="J73" t="str">
+        <v>null</v>
+      </c>
+      <c r="K73" t="str">
+        <v>null</v>
+      </c>
+      <c r="L73" t="str">
+        <v>null</v>
+      </c>
+      <c r="M73" t="str">
+        <v>null</v>
+      </c>
+      <c r="N73" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt</v>
       </c>
       <c r="B74" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C74" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ls</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl</v>
       </c>
       <c r="D74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl</v>
       </c>
       <c r="E74" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl</v>
       </c>
       <c r="F74" t="str">
-        <v>leisteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
       </c>
       <c r="G74" t="str">
-        <v>LS</v>
+        <v>null</v>
       </c>
       <c r="H74" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I74" t="str">
+        <v>null</v>
+      </c>
+      <c r="J74" t="str">
+        <v>null</v>
+      </c>
+      <c r="K74" t="str">
+        <v>null</v>
+      </c>
+      <c r="L74" t="str">
+        <v>null</v>
+      </c>
+      <c r="M74" t="str">
+        <v>null</v>
+      </c>
+      <c r="N74" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone</v>
       </c>
       <c r="B75" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C75" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ma</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
       </c>
       <c r="D75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
       </c>
       <c r="E75" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
       </c>
       <c r="F75" t="str">
-        <v>marmer</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
       </c>
       <c r="G75" t="str">
-        <v>MA</v>
+        <v>null</v>
       </c>
       <c r="H75" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I75" t="str">
+        <v>null</v>
+      </c>
+      <c r="J75" t="str">
+        <v>null</v>
+      </c>
+      <c r="K75" t="str">
+        <v>null</v>
+      </c>
+      <c r="L75" t="str">
+        <v>null</v>
+      </c>
+      <c r="M75" t="str">
+        <v>null</v>
+      </c>
+      <c r="N75" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate</v>
       </c>
       <c r="B76" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C76" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.mb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
       </c>
       <c r="D76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
       </c>
       <c r="E76" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
       </c>
       <c r="F76" t="str">
-        <v>micashist</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
       </c>
       <c r="G76" t="str">
-        <v>MB</v>
+        <v>null</v>
       </c>
       <c r="H76" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I76" t="str">
+        <v>null</v>
+      </c>
+      <c r="J76" t="str">
+        <v>null</v>
+      </c>
+      <c r="K76" t="str">
+        <v>null</v>
+      </c>
+      <c r="L76" t="str">
+        <v>null</v>
+      </c>
+      <c r="M76" t="str">
+        <v>null</v>
+      </c>
+      <c r="N76" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil</v>
       </c>
       <c r="B77" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C77" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.me</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta</v>
       </c>
       <c r="D77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta</v>
       </c>
       <c r="E77" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta</v>
       </c>
       <c r="F77" t="str">
-        <v>mergel</v>
+        <v>null</v>
       </c>
       <c r="G77" t="str">
-        <v>ME</v>
+        <v>null</v>
       </c>
       <c r="H77" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I77" t="str">
+        <v>null</v>
+      </c>
+      <c r="J77" t="str">
+        <v>null</v>
+      </c>
+      <c r="K77" t="str">
+        <v>null</v>
+      </c>
+      <c r="L77" t="str">
+        <v>null</v>
+      </c>
+      <c r="M77" t="str">
+        <v>null</v>
+      </c>
+      <c r="N77" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite</v>
       </c>
       <c r="B78" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C78" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.mg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
       </c>
       <c r="D78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
       </c>
       <c r="E78" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
       </c>
       <c r="F78" t="str">
-        <v>middelmatig grind</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
       </c>
       <c r="G78" t="str">
-        <v>MG</v>
+        <v>null</v>
       </c>
       <c r="H78" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I78" t="str">
+        <v>null</v>
+      </c>
+      <c r="J78" t="str">
+        <v>null</v>
+      </c>
+      <c r="K78" t="str">
+        <v>null</v>
+      </c>
+      <c r="L78" t="str">
+        <v>null</v>
+      </c>
+      <c r="M78" t="str">
+        <v>null</v>
+      </c>
+      <c r="N78" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mi</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste</v>
       </c>
       <c r="B79" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C79" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.mi</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="D79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="E79" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="F79" t="str">
-        <v>migmatiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="G79" t="str">
-        <v>MI</v>
+        <v>null</v>
       </c>
       <c r="H79" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I79" t="str">
+        <v>null</v>
+      </c>
+      <c r="J79" t="str">
+        <v>null</v>
+      </c>
+      <c r="K79" t="str">
+        <v>null</v>
+      </c>
+      <c r="L79" t="str">
+        <v>null</v>
+      </c>
+      <c r="M79" t="str">
+        <v>null</v>
+      </c>
+      <c r="N79" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic</v>
       </c>
       <c r="B80" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C80" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.mm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="D80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="E80" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="F80" t="str">
-        <v>metamorf gesteente</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="G80" t="str">
-        <v>MM</v>
+        <v>null</v>
       </c>
       <c r="H80" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I80" t="str">
+        <v>null</v>
+      </c>
+      <c r="J80" t="str">
+        <v>null</v>
+      </c>
+      <c r="K80" t="str">
+        <v>null</v>
+      </c>
+      <c r="L80" t="str">
+        <v>null</v>
+      </c>
+      <c r="M80" t="str">
+        <v>null</v>
+      </c>
+      <c r="N80" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite</v>
       </c>
       <c r="B81" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C81" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ms</v>
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
       </c>
       <c r="D81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
       </c>
       <c r="E81" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
       </c>
       <c r="F81" t="str">
-        <v>schiefer</v>
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
       </c>
       <c r="G81" t="str">
-        <v>MS</v>
+        <v>null</v>
       </c>
       <c r="H81" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="I81" t="str">
+        <v>null</v>
+      </c>
+      <c r="J81" t="str">
+        <v>null</v>
+      </c>
+      <c r="K81" t="str">
+        <v>null</v>
+      </c>
+      <c r="L81" t="str">
+        <v>null</v>
+      </c>
+      <c r="M81" t="str">
+        <v>null</v>
+      </c>
+      <c r="N81" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="B82" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C82" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.my</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="D82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="E82" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="F82" t="str">
-        <v>myloniet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/andesite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad</v>
       </c>
       <c r="G82" t="str">
-        <v>MY</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ad</v>
       </c>
       <c r="H82" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Grijs tot zwart intermediair uitvloeiingsgesteente.</v>
       </c>
       <c r="I82" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J82" t="str">
+        <v>AD</v>
+      </c>
+      <c r="K82" t="str">
+        <v>Grijs tot zwart intermediair uitvloeiingsgesteente.</v>
+      </c>
+      <c r="L82" t="str">
+        <v>andesiet</v>
+      </c>
+      <c r="M82" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N82" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae</v>
       </c>
       <c r="B83" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C83" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.mz</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/sandstone</v>
       </c>
       <c r="D83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/sandstone</v>
       </c>
       <c r="E83" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/sandstone</v>
       </c>
       <c r="F83" t="str">
-        <v>middelmatig zand</v>
+        <v>null</v>
       </c>
       <c r="G83" t="str">
-        <v>MZ</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ae</v>
       </c>
       <c r="H83" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Sedimentair gesteente, type zandsteen met een grote hoeveelheid veldspaat.</v>
       </c>
       <c r="I83" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J83" t="str">
+        <v>AE</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Sedimentair gesteente, type zandsteen met een grote hoeveelheid veldspaat.</v>
+      </c>
+      <c r="L83" t="str">
+        <v>arkose</v>
+      </c>
+      <c r="M83" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N83" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/nn</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="B84" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C84" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.nn</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="D84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="E84" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="F84" t="str">
-        <v>nummulieten</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/waste|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af</v>
       </c>
       <c r="G84" t="str">
-        <v>NN</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.af</v>
       </c>
       <c r="H84" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Door mensen aangebracht afval.</v>
       </c>
       <c r="I84" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J84" t="str">
+        <v>AF</v>
+      </c>
+      <c r="K84" t="str">
+        <v>Door mensen aangebracht afval.</v>
+      </c>
+      <c r="L84" t="str">
+        <v>afval</v>
+      </c>
+      <c r="M84" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N84" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah</v>
       </c>
       <c r="B85" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C85" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ok</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="D85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="E85" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="F85" t="str">
-        <v>oölitische kalksteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="G85" t="str">
-        <v>OK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ah</v>
       </c>
       <c r="H85" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Ongehydrateerde variant van het evaporitische mineraal gips.</v>
       </c>
       <c r="I85" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J85" t="str">
+        <v>AH</v>
+      </c>
+      <c r="K85" t="str">
+        <v>Ongehydrateerde variant van het evaporitische mineraal gips.</v>
+      </c>
+      <c r="L85" t="str">
+        <v>anhydriet</v>
+      </c>
+      <c r="M85" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N85" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ak</v>
       </c>
       <c r="B86" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C86" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.om</v>
+        <v>null</v>
       </c>
       <c r="D86" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="E86" t="str">
         <v>null</v>
       </c>
       <c r="F86" t="str">
-        <v>organisch materiaal</v>
+        <v>null</v>
       </c>
       <c r="G86" t="str">
-        <v>OM</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ak</v>
       </c>
       <c r="H86" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Carbonaatmineraal dat naast calcium ook ijzer, magnesium en mangaan bevat.</v>
       </c>
       <c r="I86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J86" t="str">
+        <v>AK</v>
+      </c>
+      <c r="K86" t="str">
+        <v>Carbonaatmineraal dat naast calcium ook ijzer, magnesium en mangaan bevat.</v>
+      </c>
+      <c r="L86" t="str">
+        <v>ankeriet</v>
+      </c>
+      <c r="M86" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N86" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pa</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an</v>
       </c>
       <c r="B87" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C87" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pa</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="D87" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="E87" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="F87" t="str">
-        <v>pegmatiet</v>
+        <v>null</v>
       </c>
       <c r="G87" t="str">
-        <v>PA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.an</v>
       </c>
       <c r="H87" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Verstoord doorlatend materiaal.</v>
       </c>
       <c r="I87" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J87" t="str">
+        <v>AN</v>
+      </c>
+      <c r="K87" t="str">
+        <v>Verstoord doorlatend materiaal.</v>
+      </c>
+      <c r="L87" t="str">
+        <v>antropogeen niet vloeistofdicht</v>
+      </c>
+      <c r="M87" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N87" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="B88" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C88" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="D88" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="E88" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="F88" t="str">
-        <v>peridodiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/arenite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar</v>
       </c>
       <c r="G88" t="str">
-        <v>PB</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ar</v>
       </c>
       <c r="H88" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Sedimentair gesteente waarin de korrels de grootte van zand hebben.</v>
       </c>
       <c r="I88" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J88" t="str">
+        <v>AR</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Sedimentair gesteente waarin de korrels de grootte van zand hebben.</v>
+      </c>
+      <c r="L88" t="str">
+        <v>areniet</v>
+      </c>
+      <c r="M88" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N88" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pc</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/as</v>
       </c>
       <c r="B89" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C89" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pc</v>
+        <v>null</v>
       </c>
       <c r="D89" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="E89" t="str">
         <v>null</v>
       </c>
       <c r="F89" t="str">
-        <v>poederkool</v>
+        <v>null</v>
       </c>
       <c r="G89" t="str">
-        <v>PC</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.as</v>
       </c>
       <c r="H89" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Resten die overblijven na verbranding.</v>
       </c>
       <c r="I89" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J89" t="str">
+        <v>AS</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Resten die overblijven na verbranding.</v>
+      </c>
+      <c r="L89" t="str">
+        <v>as</v>
+      </c>
+      <c r="M89" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N89" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pd</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at</v>
       </c>
       <c r="B90" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C90" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="D90" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="E90" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bitumen</v>
       </c>
       <c r="F90" t="str">
-        <v>pyroxeniet</v>
+        <v>null</v>
       </c>
       <c r="G90" t="str">
-        <v>PD</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.at</v>
       </c>
       <c r="H90" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Kunstmatig gesteente samengesteld uit mineraal aggregaat en bitumen.</v>
       </c>
       <c r="I90" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J90" t="str">
+        <v>AT</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Kunstmatig gesteente samengesteld uit mineraal aggregaat en bitumen.</v>
+      </c>
+      <c r="L90" t="str">
+        <v>asfalt</v>
+      </c>
+      <c r="M90" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N90" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av</v>
       </c>
       <c r="B91" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C91" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="D91" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="E91" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="F91" t="str">
-        <v>plantenresten</v>
+        <v>null</v>
       </c>
       <c r="G91" t="str">
-        <v>PL</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.av</v>
       </c>
       <c r="H91" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Verstoord ondoorlatend materiaal.</v>
       </c>
       <c r="I91" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J91" t="str">
+        <v>AV</v>
+      </c>
+      <c r="K91" t="str">
+        <v>Verstoord ondoorlatend materiaal.</v>
+      </c>
+      <c r="L91" t="str">
+        <v>antropogeen vloeistofdicht</v>
+      </c>
+      <c r="M91" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N91" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw</v>
       </c>
       <c r="B92" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C92" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pm</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="D92" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="E92" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial</v>
       </c>
       <c r="F92" t="str">
-        <v>puimsteen</v>
+        <v>null</v>
       </c>
       <c r="G92" t="str">
-        <v>PM</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.aw</v>
       </c>
       <c r="H92" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Verstoord licht doorlatend materiaal.</v>
       </c>
       <c r="I92" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J92" t="str">
+        <v>AW</v>
+      </c>
+      <c r="K92" t="str">
+        <v>Verstoord licht doorlatend materiaal.</v>
+      </c>
+      <c r="L92" t="str">
+        <v>antropogeen weinig vloeistofdicht</v>
+      </c>
+      <c r="M92" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N92" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="B93" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C93" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ps</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="D93" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="E93" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="F93" t="str">
-        <v>psammiet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/basalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba</v>
       </c>
       <c r="G93" t="str">
-        <v>PS</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ba</v>
       </c>
       <c r="H93" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Zwart mafisch uitvloeiingsgesteente.</v>
       </c>
       <c r="I93" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J93" t="str">
+        <v>BA</v>
+      </c>
+      <c r="K93" t="str">
+        <v>Zwart mafisch uitvloeiingsgesteente.</v>
+      </c>
+      <c r="L93" t="str">
+        <v>basalt</v>
+      </c>
+      <c r="M93" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N93" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="B94" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C94" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pu</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="D94" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="E94" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="F94" t="str">
-        <v>puin</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/bentonite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be</v>
       </c>
       <c r="G94" t="str">
-        <v>PU</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.be</v>
       </c>
       <c r="H94" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Zwellende natrium-klei, grotendeels bestaande uit montmorilloniet. Belangrijke component van boormodder.</v>
       </c>
       <c r="I94" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J94" t="str">
+        <v>BE</v>
+      </c>
+      <c r="K94" t="str">
+        <v>Zwellende natrium-klei, grotendeels bestaande uit montmorilloniet. Belangrijke component van boormodder.</v>
+      </c>
+      <c r="L94" t="str">
+        <v>bentoniet</v>
+      </c>
+      <c r="M94" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N94" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk</v>
       </c>
       <c r="B95" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C95" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.py</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicConsolidatedMaterial</v>
       </c>
       <c r="D95" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicConsolidatedMaterial</v>
       </c>
       <c r="E95" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicConsolidatedMaterial</v>
       </c>
       <c r="F95" t="str">
-        <v>pyriet</v>
+        <v>null</v>
       </c>
       <c r="G95" t="str">
-        <v>PY</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.bk</v>
       </c>
       <c r="H95" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Steen gebakken door mensen, op basis van een mengeling van hoofdzakelijk klei en leem.</v>
       </c>
       <c r="I95" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J95" t="str">
+        <v>BK</v>
+      </c>
+      <c r="K95" t="str">
+        <v>Steen gebakken door mensen, op basis van een mengeling van hoofdzakelijk klei en leem.</v>
+      </c>
+      <c r="L95" t="str">
+        <v>baksteen</v>
+      </c>
+      <c r="M95" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N95" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="B96" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C96" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.qu</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="D96" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="E96" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="F96" t="str">
-        <v>kwarts</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/concrete|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt</v>
       </c>
       <c r="G96" t="str">
-        <v>QU</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.bt</v>
       </c>
       <c r="H96" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Kunstmatige gesteente dat als bouwmateriaal gebruikt wordt, bestaande uit cement en uit zand, grind of steenslag.</v>
       </c>
       <c r="I96" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J96" t="str">
+        <v>BT</v>
+      </c>
+      <c r="K96" t="str">
+        <v>Kunstmatige gesteente dat als bouwmateriaal gebruikt wordt, bestaande uit cement en uit zand, grind of steenslag.</v>
+      </c>
+      <c r="L96" t="str">
+        <v>beton</v>
+      </c>
+      <c r="M96" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N96" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ra</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca</v>
       </c>
       <c r="B97" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C97" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ra</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
       </c>
       <c r="D97" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
       </c>
       <c r="E97" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
       </c>
       <c r="F97" t="str">
-        <v>radiolariet</v>
+        <v>null</v>
       </c>
       <c r="G97" t="str">
-        <v>RA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ca</v>
       </c>
       <c r="H97" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Fragmenten van carbonaatgesteenten.</v>
       </c>
       <c r="I97" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J97" t="str">
+        <v>CA</v>
+      </c>
+      <c r="K97" t="str">
+        <v>Fragmenten van carbonaatgesteenten.</v>
+      </c>
+      <c r="L97" t="str">
+        <v>carbonaatfragmenten</v>
+      </c>
+      <c r="M97" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N97" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch</v>
       </c>
       <c r="B98" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C98" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.rb</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
       </c>
       <c r="D98" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
       </c>
       <c r="E98" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
       </c>
       <c r="F98" t="str">
-        <v>rhyoliet</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
       </c>
       <c r="G98" t="str">
-        <v>RB</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ch</v>
       </c>
       <c r="H98" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Vuursteen, silex of flint. Bestaat uit cryptokristallijn kwarts.</v>
       </c>
       <c r="I98" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J98" t="str">
+        <v>CH</v>
+      </c>
+      <c r="K98" t="str">
+        <v>Vuursteen, silex of flint. Bestaat uit cryptokristallijn kwarts.</v>
+      </c>
+      <c r="L98" t="str">
+        <v>chert (gebande)</v>
+      </c>
+      <c r="M98" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N98" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="B99" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C99" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ro</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="D99" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="E99" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="F99" t="str">
-        <v>rots</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/conglomerate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co</v>
       </c>
       <c r="G99" t="str">
-        <v>RO</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.co</v>
       </c>
       <c r="H99" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Sedimentaire gesteente bestaande uit grind in een fijnere matrix.</v>
       </c>
       <c r="I99" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J99" t="str">
+        <v>CO</v>
+      </c>
+      <c r="K99" t="str">
+        <v>Sedimentaire gesteente bestaande uit grind in een fijnere matrix.</v>
+      </c>
+      <c r="L99" t="str">
+        <v>conglomeraat/breccie</v>
+      </c>
+      <c r="M99" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N99" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="B100" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C100" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.rv</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="D100" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="E100" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="F100" t="str">
-        <v>verweerde rots</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
       </c>
       <c r="G100" t="str">
-        <v>RV</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.co2</v>
       </c>
       <c r="H100" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Gesteente hoofdzakelijk bestaande uit organisch materiaal, gevormd na diepe begraving onder hoge druk en temperatuur.</v>
       </c>
       <c r="I100" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J100" t="str">
+        <v>CO2</v>
+      </c>
+      <c r="K100" t="str">
+        <v>Gesteente hoofdzakelijk bestaande uit organisch materiaal, gevormd na diepe begraving onder hoge druk en temperatuur.</v>
+      </c>
+      <c r="L100" t="str">
+        <v>steenkool</v>
+      </c>
+      <c r="M100" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N100" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sa</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="B101" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C101" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sa</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="D101" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="E101" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="F101" t="str">
-        <v>sideriet</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="G101" t="str">
-        <v>SA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.da</v>
       </c>
       <c r="H101" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Felsisch uitvloeiingsgesteente.</v>
       </c>
       <c r="I101" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J101" t="str">
+        <v>DA</v>
+      </c>
+      <c r="K101" t="str">
+        <v>Felsisch uitvloeiingsgesteente.</v>
+      </c>
+      <c r="L101" t="str">
+        <v>daciet</v>
+      </c>
+      <c r="M101" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N101" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="B102" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C102" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sc</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="D102" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="E102" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="F102" t="str">
-        <v>schelpen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="G102" t="str">
-        <v>SC</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dk</v>
       </c>
       <c r="H102" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Kalksteen grotendeels bestaande uit dolomiet.</v>
       </c>
       <c r="I102" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J102" t="str">
+        <v>DK</v>
+      </c>
+      <c r="K102" t="str">
+        <v>Kalksteen grotendeels bestaande uit dolomiet.</v>
+      </c>
+      <c r="L102" t="str">
+        <v>dolomitische kalksteen</v>
+      </c>
+      <c r="M102" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N102" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="B103" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C103" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.se</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="D103" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="E103" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="F103" t="str">
-        <v>sedimentair</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="G103" t="str">
-        <v>SE</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dl</v>
       </c>
       <c r="H103" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Mafisch intrusief stollingsgesteente, ganggesteente.</v>
       </c>
       <c r="I103" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J103" t="str">
+        <v>DL</v>
+      </c>
+      <c r="K103" t="str">
+        <v>Mafisch intrusief stollingsgesteente, ganggesteente.</v>
+      </c>
+      <c r="L103" t="str">
+        <v>doleriet</v>
+      </c>
+      <c r="M103" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N103" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="B104" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C104" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sf</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="D104" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="E104" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="F104" t="str">
-        <v>schelpfragmenten</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="G104" t="str">
-        <v>SF</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.do</v>
       </c>
       <c r="H104" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Carbonaatmineraal bestaande uit calciummagnesiumcarbonaat, of gesteente bestaande uit het mineraal dolomiet.</v>
       </c>
       <c r="I104" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J104" t="str">
+        <v>DO</v>
+      </c>
+      <c r="K104" t="str">
+        <v>Carbonaatmineraal bestaande uit calciummagnesiumcarbonaat, of gesteente bestaande uit het mineraal dolomiet.</v>
+      </c>
+      <c r="L104" t="str">
+        <v>dolomiet</v>
+      </c>
+      <c r="M104" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N104" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="B105" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C105" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="D105" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="E105" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="F105" t="str">
-        <v>schelpgruis</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="G105" t="str">
-        <v>SG</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dr</v>
       </c>
       <c r="H105" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Intermediair intrusief stollingsgesteente.</v>
       </c>
       <c r="I105" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J105" t="str">
+        <v>DR</v>
+      </c>
+      <c r="K105" t="str">
+        <v>Intermediair intrusief stollingsgesteente.</v>
+      </c>
+      <c r="L105" t="str">
+        <v>dioriet</v>
+      </c>
+      <c r="M105" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N105" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="B106" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C106" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sh</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="D106" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="E106" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="F106" t="str">
-        <v>schalie</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="G106" t="str">
-        <v>SH</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ev</v>
       </c>
       <c r="H106" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Gesteente of mineraal ontstaan door indamping waarbij mineralen en zouten neerslaan na verzadiging in water.</v>
       </c>
       <c r="I106" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J106" t="str">
+        <v>EV</v>
+      </c>
+      <c r="K106" t="str">
+        <v>Gesteente of mineraal ontstaan door indamping waarbij mineralen en zouten neerslaan na verzadiging in water.</v>
+      </c>
+      <c r="L106" t="str">
+        <v>evaporiet</v>
+      </c>
+      <c r="M106" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N106" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="B107" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C107" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.si</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="D107" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="E107" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="F107" t="str">
-        <v>silt</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="G107" t="str">
-        <v>SI</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fe</v>
       </c>
       <c r="H107" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Chemisch element ijzer, kan oxideren of roesten in  de bodem en ondergrond, met een roestbruine kleur tot gevolg.</v>
       </c>
       <c r="I107" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J107" t="str">
+        <v>FE</v>
+      </c>
+      <c r="K107" t="str">
+        <v>Chemisch element ijzer, kan oxideren of roesten in  de bodem en ondergrond, met een roestbruine kleur tot gevolg.</v>
+      </c>
+      <c r="L107" t="str">
+        <v>ijzer</v>
+      </c>
+      <c r="M107" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N107" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg</v>
       </c>
       <c r="B108" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C108" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sk</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="D108" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="E108" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="F108" t="str">
-        <v>schieferige kalkst.</v>
+        <v>null</v>
       </c>
       <c r="G108" t="str">
-        <v>SK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fg</v>
       </c>
       <c r="H108" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 2.00-6.30 mm (ISO 14688), 2-4 mm (Granule: Udden-Wentworth), 2-5 mm (USDA Soil Classification).</v>
       </c>
       <c r="I108" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J108" t="str">
+        <v>FG</v>
+      </c>
+      <c r="K108" t="str">
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 2.00-6.30 mm (ISO 14688), 2-4 mm (Granule: Udden-Wentworth), 2-5 mm (USDA Soil Classification).</v>
+      </c>
+      <c r="L108" t="str">
+        <v>fijn grind</v>
+      </c>
+      <c r="M108" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N108" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="B109" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C109" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="D109" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="E109" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="F109" t="str">
-        <v>slib</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="G109" t="str">
-        <v>SL</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fo</v>
       </c>
       <c r="H109" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Sedimentair gesteente dat voor een belangrijk deel uit fosfaten bestaat.</v>
       </c>
       <c r="I109" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J109" t="str">
+        <v>FO</v>
+      </c>
+      <c r="K109" t="str">
+        <v>Sedimentair gesteente dat voor een belangrijk deel uit fosfaten bestaat.</v>
+      </c>
+      <c r="L109" t="str">
+        <v>fosforiet</v>
+      </c>
+      <c r="M109" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N109" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fs</v>
       </c>
       <c r="B110" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C110" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sn</v>
+        <v>null</v>
       </c>
       <c r="D110" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="E110" t="str">
         <v>null</v>
       </c>
       <c r="F110" t="str">
-        <v>steenfragmenten</v>
+        <v>null</v>
       </c>
       <c r="G110" t="str">
-        <v>SN</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fs</v>
       </c>
       <c r="H110" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Fossielen zijn de resten van dieren en planten die duizenden tot honderden miljoenen jaren geleden stierven en bewaard bleven in het gesteente of in de sedimenten. Wat gevonden wordt als fossiel, is in veel gevallen slechts een skeletdeel of een afdruk van de oorspronkelijke dieren of planten.</v>
       </c>
       <c r="I110" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J110" t="str">
+        <v>FS</v>
+      </c>
+      <c r="K110" t="str">
+        <v>Fossielen zijn de resten van dieren en planten die duizenden tot honderden miljoenen jaren geleden stierven en bewaard bleven in het gesteente of in de sedimenten. Wat gevonden wordt als fossiel, is in veel gevallen slechts een skeletdeel of een afdruk van de oorspronkelijke dieren of planten.</v>
+      </c>
+      <c r="L110" t="str">
+        <v>fossielen</v>
+      </c>
+      <c r="M110" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N110" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="B111" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C111" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.so</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="D111" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="E111" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="F111" t="str">
-        <v>scoria</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="G111" t="str">
-        <v>SO</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fy</v>
       </c>
       <c r="H111" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Metamorfe vorm van kleisteen, verder geëvolueerd dan leisteen.</v>
       </c>
       <c r="I111" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J111" t="str">
+        <v>FY</v>
+      </c>
+      <c r="K111" t="str">
+        <v>Metamorfe vorm van kleisteen, verder geëvolueerd dan leisteen.</v>
+      </c>
+      <c r="L111" t="str">
+        <v>fylliet</v>
+      </c>
+      <c r="M111" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N111" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sp</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz</v>
       </c>
       <c r="B112" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C112" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sp</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="D112" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="E112" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="F112" t="str">
-        <v>serpentiniet</v>
+        <v>null</v>
       </c>
       <c r="G112" t="str">
-        <v>SP</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fz</v>
       </c>
       <c r="H112" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.063-0.200 mm (ISO 14688), 0.125-0.200 mm (ISO 11277), 0.125-0.250 mm (Udden-Wentworth), 0.105-0.150 mm (Belgische bodemclassificatie met daarnaast ook uiterst fijn zand (0.050-0.075mm) en zeer fijn zand 0.075-0.105 mm) en matig fijn zand (0.150-0.210mm))</v>
       </c>
       <c r="I112" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J112" t="str">
+        <v>FZ</v>
+      </c>
+      <c r="K112" t="str">
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.063-0.200 mm (ISO 14688), 0.125-0.200 mm (ISO 11277), 0.125-0.250 mm (Udden-Wentworth), 0.105-0.150 mm (Belgische bodemclassificatie met daarnaast ook uiterst fijn zand (0.050-0.075mm) en zeer fijn zand 0.075-0.105 mm) en matig fijn zand (0.150-0.210mm))</v>
+      </c>
+      <c r="L112" t="str">
+        <v>fijn zand</v>
+      </c>
+      <c r="M112" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N112" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="B113" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C113" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ss</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="D113" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="E113" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="F113" t="str">
-        <v>siltsteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="G113" t="str">
-        <v>SS</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ga</v>
       </c>
       <c r="H113" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Door menselijke activiteit verstoord sediment.</v>
       </c>
       <c r="I113" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J113" t="str">
+        <v>GA</v>
+      </c>
+      <c r="K113" t="str">
+        <v>Door menselijke activiteit verstoord sediment.</v>
+      </c>
+      <c r="L113" t="str">
+        <v>geroerd / gestoord</v>
+      </c>
+      <c r="M113" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N113" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="B114" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C114" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.st</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="D114" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="E114" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="F114" t="str">
-        <v>stenen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="G114" t="str">
-        <v>ST</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gb</v>
       </c>
       <c r="H114" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Mafisch intrusief stollingsgesteente, dieptegesteente.</v>
       </c>
       <c r="I114" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J114" t="str">
+        <v>GB</v>
+      </c>
+      <c r="K114" t="str">
+        <v>Mafisch intrusief stollingsgesteente, dieptegesteente.</v>
+      </c>
+      <c r="L114" t="str">
+        <v>gabbro</v>
+      </c>
+      <c r="M114" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N114" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="B115" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C115" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sx</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="D115" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="E115" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="F115" t="str">
-        <v>silex</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="G115" t="str">
-        <v>SX</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gd</v>
       </c>
       <c r="H115" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Felsisch intrusief gesteente, tussen graniet en dioriet.</v>
       </c>
       <c r="I115" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J115" t="str">
+        <v>GD</v>
+      </c>
+      <c r="K115" t="str">
+        <v>Felsisch intrusief gesteente, tussen graniet en dioriet.</v>
+      </c>
+      <c r="L115" t="str">
+        <v>granodioriet</v>
+      </c>
+      <c r="M115" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N115" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg</v>
       </c>
       <c r="B116" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C116" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sy</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="D116" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="E116" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="F116" t="str">
-        <v>shist</v>
+        <v>null</v>
       </c>
       <c r="G116" t="str">
-        <v>SY</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gg</v>
       </c>
       <c r="H116" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 20-63 mm (ISO 14688), 4-64 mm (Pebble: Udden-Wentworth), 20-76 (USDA Soil Classification).</v>
       </c>
       <c r="I116" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J116" t="str">
+        <v>GG</v>
+      </c>
+      <c r="K116" t="str">
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 20-63 mm (ISO 14688), 4-64 mm (Pebble: Udden-Wentworth), 20-76 (USDA Soil Classification).</v>
+      </c>
+      <c r="L116" t="str">
+        <v>grof grind</v>
+      </c>
+      <c r="M116" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N116" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh</v>
       </c>
       <c r="B117" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C117" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ta</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock</v>
       </c>
       <c r="D117" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock</v>
       </c>
       <c r="E117" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock</v>
       </c>
       <c r="F117" t="str">
-        <v>teelaarde</v>
+        <v>null</v>
       </c>
       <c r="G117" t="str">
-        <v>TA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gh</v>
       </c>
       <c r="H117" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Metamorf gesteente met splijting (schistositeit), gevormd onder gemiddelde druk en temperatuur, rijk aan groene mineralen epidoot, chloriet en chloritoid.</v>
       </c>
       <c r="I117" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J117" t="str">
+        <v>GH</v>
+      </c>
+      <c r="K117" t="str">
+        <v>Metamorf gesteente met splijting (schistositeit), gevormd onder gemiddelde druk en temperatuur, rijk aan groene mineralen epidoot, chloriet en chloritoid.</v>
+      </c>
+      <c r="L117" t="str">
+        <v>groenschist</v>
+      </c>
+      <c r="M117" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N117" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="B118" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C118" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.tb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="D118" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="E118" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="F118" t="str">
-        <v>tuff</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gypsumOrAnhydrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi</v>
       </c>
       <c r="G118" t="str">
-        <v>TB</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gi</v>
       </c>
       <c r="H118" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Gehydrateerd evaporitisch mineraal bestaande uit calciumsulfaat.</v>
       </c>
       <c r="I118" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J118" t="str">
+        <v>GI</v>
+      </c>
+      <c r="K118" t="str">
+        <v>Gehydrateerd evaporitisch mineraal bestaande uit calciumsulfaat.</v>
+      </c>
+      <c r="L118" t="str">
+        <v>gips</v>
+      </c>
+      <c r="M118" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N118" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="B119" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C119" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ts</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="D119" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="E119" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="F119" t="str">
-        <v>tufsteen (tuffeau)</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/glauconite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl</v>
       </c>
       <c r="G119" t="str">
-        <v>TS</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gl</v>
       </c>
       <c r="H119" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Groen ijzerhoudend kleimineraal dat zich opkrult tot bolletjes met de korrelgrootte van zand.</v>
       </c>
       <c r="I119" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J119" t="str">
+        <v>GL</v>
+      </c>
+      <c r="K119" t="str">
+        <v>Groen ijzerhoudend kleimineraal dat zich opkrult tot bolletjes met de korrelgrootte van zand.</v>
+      </c>
+      <c r="L119" t="str">
+        <v>glauconiet</v>
+      </c>
+      <c r="M119" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N119" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/va</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="B120" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C120" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.va</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
       </c>
       <c r="D120" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
       </c>
       <c r="E120" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
       </c>
       <c r="F120" t="str">
-        <v>vulkanisch gesteente</v>
+        <v>null</v>
       </c>
       <c r="G120" t="str">
-        <v>VA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gm</v>
       </c>
       <c r="H120" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Metamorf gesteente met goed ontwikkelde splijting.</v>
       </c>
       <c r="I120" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J120" t="str">
+        <v>GM</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Metamorf gesteente met goed ontwikkelde splijting.</v>
+      </c>
+      <c r="L120" t="str">
+        <v>gespleten metamorf</v>
+      </c>
+      <c r="M120" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N120" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="B121" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C121" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ve</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="D121" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="E121" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="F121" t="str">
-        <v>veen</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
       </c>
       <c r="G121" t="str">
-        <v>VE</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gm2</v>
       </c>
       <c r="H121" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Mica's, een groep van plaatvormige fylosilicaatmineralen.</v>
       </c>
       <c r="I121" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J121" t="str">
+        <v>GM2</v>
+      </c>
+      <c r="K121" t="str">
+        <v>Mica's, een groep van plaatvormige fylosilicaatmineralen.</v>
+      </c>
+      <c r="L121" t="str">
+        <v>glimmers</v>
+      </c>
+      <c r="M121" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N121" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="B122" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C122" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.vs</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="D122" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="E122" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="F122" t="str">
-        <v>vuursteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="G122" t="str">
-        <v>VS</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gn</v>
       </c>
       <c r="H122" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Metamorf gesteente met geband uiterlijk, oorspronkelijk zandsteen of graniet.</v>
       </c>
       <c r="I122" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J122" t="str">
+        <v>GN</v>
+      </c>
+      <c r="K122" t="str">
+        <v>Metamorf gesteente met geband uiterlijk, oorspronkelijk zandsteen of graniet.</v>
+      </c>
+      <c r="L122" t="str">
+        <v>gneis</v>
+      </c>
+      <c r="M122" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N122" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/wa</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="B123" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C123" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.wa</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="D123" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="E123" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="F123" t="str">
-        <v>wacksteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="G123" t="str">
-        <v>WA</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gr</v>
       </c>
       <c r="H123" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Felsisch intrusief gesteente, dieptegesteente.</v>
       </c>
       <c r="I123" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J123" t="str">
+        <v>GR</v>
+      </c>
+      <c r="K123" t="str">
+        <v>Felsisch intrusief gesteente, dieptegesteente.</v>
+      </c>
+      <c r="L123" t="str">
+        <v>graniet</v>
+      </c>
+      <c r="M123" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N123" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="B124" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C124" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.xg</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="D124" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="E124" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="F124" t="str">
-        <v>grind</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="G124" t="str">
-        <v>XG</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gs</v>
       </c>
       <c r="H124" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Metamorf massief gesteente, gevormd onder gemiddelde druk en temperatuur, rijk aan groene mineralen epidoot, chloriet en chloritoid.</v>
       </c>
       <c r="I124" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J124" t="str">
+        <v>GS</v>
+      </c>
+      <c r="K124" t="str">
+        <v>Metamorf massief gesteente, gevormd onder gemiddelde druk en temperatuur, rijk aan groene mineralen epidoot, chloriet en chloritoid.</v>
+      </c>
+      <c r="L124" t="str">
+        <v>groensteen</v>
+      </c>
+      <c r="M124" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N124" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xx</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz</v>
       </c>
       <c r="B125" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C125" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.xx</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="D125" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="E125" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="F125" t="str">
-        <v>onbekend</v>
+        <v>null</v>
       </c>
       <c r="G125" t="str">
-        <v>XX</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gz</v>
       </c>
       <c r="H125" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.630-2.000 mm (ISO 14688), 0.630-1.250 mm (ISO 11277), 0.500-1.000 mm (Udden-Wentworth), 0.300-0.420 mm (Belgische bodemclassificatie met daarnaast matig grof zand (0.210-0.300mm), zeer grof zand (0.420-1mm) en uiterst grof zand (1-2mm))</v>
       </c>
       <c r="I125" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J125" t="str">
+        <v>GZ</v>
+      </c>
+      <c r="K125" t="str">
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.630-2.000 mm (ISO 14688), 0.630-1.250 mm (ISO 11277), 0.500-1.000 mm (Udden-Wentworth), 0.300-0.420 mm (Belgische bodemclassificatie met daarnaast matig grof zand (0.210-0.300mm), zeer grof zand (0.420-1mm) en uiterst grof zand (1-2mm))</v>
+      </c>
+      <c r="L125" t="str">
+        <v>grof zand</v>
+      </c>
+      <c r="M125" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N125" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="B126" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C126" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.xz</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="D126" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="E126" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="F126" t="str">
-        <v>zand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="G126" t="str">
-        <v>XZ</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ha</v>
       </c>
       <c r="H126" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Mineraal steenzout (NaCl).</v>
       </c>
       <c r="I126" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J126" t="str">
+        <v>HA</v>
+      </c>
+      <c r="K126" t="str">
+        <v>Mineraal steenzout (NaCl).</v>
+      </c>
+      <c r="L126" t="str">
+        <v>haliet</v>
+      </c>
+      <c r="M126" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N126" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ze</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="B127" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C127" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ze</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="D127" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="E127" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="F127" t="str">
-        <v>zeepsteen</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="G127" t="str">
-        <v>ZE</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.he</v>
       </c>
       <c r="H127" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>IJzeroxide mineraal (Fe2O3) met rode, roestbruine tot zwarte kleur.</v>
       </c>
       <c r="I127" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J127" t="str">
+        <v>HE</v>
+      </c>
+      <c r="K127" t="str">
+        <v>IJzeroxide mineraal (Fe2O3) met rode, roestbruine tot zwarte kleur.</v>
+      </c>
+      <c r="L127" t="str">
+        <v>hematiet</v>
+      </c>
+      <c r="M127" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N127" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hk</v>
       </c>
       <c r="B128" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C128" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.zk</v>
+        <v>null</v>
       </c>
       <c r="D128" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="E128" t="str">
         <v>null</v>
       </c>
       <c r="F128" t="str">
-        <v>kalkzandsteen</v>
+        <v>null</v>
       </c>
       <c r="G128" t="str">
-        <v>ZK</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hk</v>
       </c>
       <c r="H128" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Verkoold hout dat nagenoeg uit zuiver koolstof bestaat.</v>
       </c>
       <c r="I128" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J128" t="str">
+        <v>HK</v>
+      </c>
+      <c r="K128" t="str">
+        <v>Verkoold hout dat nagenoeg uit zuiver koolstof bestaat.</v>
+      </c>
+      <c r="L128" t="str">
+        <v>houtskool</v>
+      </c>
+      <c r="M128" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N128" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht</v>
       </c>
       <c r="B129" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C129" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.zl</v>
+        <v>null</v>
       </c>
       <c r="D129" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>null</v>
       </c>
       <c r="E129" t="str">
         <v>null</v>
       </c>
       <c r="F129" t="str">
-        <v>zandleem</v>
+        <v>null</v>
       </c>
       <c r="G129" t="str">
-        <v>ZL</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ht</v>
       </c>
       <c r="H129" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Resten van hout zoals delen van boomstammen of takken.</v>
       </c>
       <c r="I129" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J129" t="str">
+        <v>HT</v>
+      </c>
+      <c r="K129" t="str">
+        <v>Resten van hout zoals delen van boomstammen of takken.</v>
+      </c>
+      <c r="L129" t="str">
+        <v>houtresten</v>
+      </c>
+      <c r="M129" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N129" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu</v>
       </c>
       <c r="B130" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C130" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.zs</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="D130" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="E130" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="F130" t="str">
-        <v>zandsteen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="G130" t="str">
-        <v>ZS</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hu</v>
       </c>
       <c r="H130" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>Organische stof</v>
       </c>
       <c r="I130" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J130" t="str">
+        <v>HU</v>
+      </c>
+      <c r="K130" t="str">
+        <v>Organische stof</v>
+      </c>
+      <c r="L130" t="str">
+        <v>humus</v>
+      </c>
+      <c r="M130" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N130" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig</v>
       </c>
       <c r="B131" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C131" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+      </c>
+      <c r="D131" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+      </c>
+      <c r="E131" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+      </c>
+      <c r="F131" t="str">
+        <v>null</v>
+      </c>
+      <c r="G131" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ig</v>
+      </c>
+      <c r="H131" t="str">
+        <v>Gesteente gevormd door de ondergrondse stolling van magma.</v>
+      </c>
+      <c r="I131" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J131" t="str">
+        <v>IG</v>
+      </c>
+      <c r="K131" t="str">
+        <v>Gesteente gevormd door de ondergrondse stolling van magma.</v>
+      </c>
+      <c r="L131" t="str">
+        <v>intrusief gesteente</v>
+      </c>
+      <c r="M131" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N131" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io</v>
+      </c>
+      <c r="B132" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C132" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
+      </c>
+      <c r="D132" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
+      </c>
+      <c r="E132" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
+      </c>
+      <c r="F132" t="str">
+        <v>null</v>
+      </c>
+      <c r="G132" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.io</v>
+      </c>
+      <c r="H132" t="str">
+        <v>Gesteente met een oölietische textuur, aaneengekit door ijzeroxiden.</v>
+      </c>
+      <c r="I132" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J132" t="str">
+        <v>IO</v>
+      </c>
+      <c r="K132" t="str">
+        <v>Gesteente met een oölietische textuur, aaneengekit door ijzeroxiden.</v>
+      </c>
+      <c r="L132" t="str">
+        <v>ijzerooliet</v>
+      </c>
+      <c r="M132" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N132" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+      </c>
+      <c r="B133" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C133" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+      </c>
+      <c r="D133" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+      </c>
+      <c r="E133" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+      </c>
+      <c r="F133" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+      </c>
+      <c r="G133" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ka</v>
+      </c>
+      <c r="H133" t="str">
+        <v>Calciumcarbonaat.</v>
+      </c>
+      <c r="I133" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J133" t="str">
+        <v>KA</v>
+      </c>
+      <c r="K133" t="str">
+        <v>Calciumcarbonaat.</v>
+      </c>
+      <c r="L133" t="str">
+        <v>kalk</v>
+      </c>
+      <c r="M133" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N133" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb</v>
+      </c>
+      <c r="B134" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C134" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
+      </c>
+      <c r="D134" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
+      </c>
+      <c r="E134" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
+      </c>
+      <c r="F134" t="str">
+        <v>null</v>
+      </c>
+      <c r="G134" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kb</v>
+      </c>
+      <c r="H134" t="str">
+        <v>Breccie hoofdzakelijk bestaande uit kalksteenfragmenten.</v>
+      </c>
+      <c r="I134" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J134" t="str">
+        <v>KB</v>
+      </c>
+      <c r="K134" t="str">
+        <v>Breccie hoofdzakelijk bestaande uit kalksteenfragmenten.</v>
+      </c>
+      <c r="L134" t="str">
+        <v>kalksteenbreccie</v>
+      </c>
+      <c r="M134" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N134" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc</v>
+      </c>
+      <c r="B135" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C135" t="str">
+        <v>null</v>
+      </c>
+      <c r="D135" t="str">
+        <v>null</v>
+      </c>
+      <c r="E135" t="str">
+        <v>null</v>
+      </c>
+      <c r="F135" t="str">
+        <v>null</v>
+      </c>
+      <c r="G135" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kc</v>
+      </c>
+      <c r="H135" t="str">
+        <v>Schiefergesteente dat een significante hoeveelheid kalk bevat.</v>
+      </c>
+      <c r="I135" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J135" t="str">
+        <v>KC</v>
+      </c>
+      <c r="K135" t="str">
+        <v>Schiefergesteente dat een significante hoeveelheid kalk bevat.</v>
+      </c>
+      <c r="L135" t="str">
+        <v>kalkschiefer</v>
+      </c>
+      <c r="M135" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N135" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+      </c>
+      <c r="B136" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C136" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+      </c>
+      <c r="D136" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+      </c>
+      <c r="E136" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+      </c>
+      <c r="F136" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+      </c>
+      <c r="G136" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kl</v>
+      </c>
+      <c r="H136" t="str">
+        <v>Fijnkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie:  kleiner dan 0.002 mm (ISO 14688/ISO 11277/Belgische bodemclassificatie/USDA soil classification), kleiner dan 0.004 mm (Udden-Wentworth)</v>
+      </c>
+      <c r="I136" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J136" t="str">
+        <v>KL</v>
+      </c>
+      <c r="K136" t="str">
+        <v>Fijnkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie:  kleiner dan 0.002 mm (ISO 14688/ISO 11277/Belgische bodemclassificatie/USDA soil classification), kleiner dan 0.004 mm (Udden-Wentworth)</v>
+      </c>
+      <c r="L136" t="str">
+        <v>klei</v>
+      </c>
+      <c r="M136" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N136" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
+      </c>
+      <c r="B137" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C137" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
+      </c>
+      <c r="D137" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
+      </c>
+      <c r="E137" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
+      </c>
+      <c r="F137" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chalk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr</v>
+      </c>
+      <c r="G137" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kr</v>
+      </c>
+      <c r="H137" t="str">
+        <v>Zacht wit sedimentair gesteente bestaande uit calciumcarbonaat, door de opeenstapeling van microscopische kalkskeletjes.</v>
+      </c>
+      <c r="I137" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J137" t="str">
+        <v>KR</v>
+      </c>
+      <c r="K137" t="str">
+        <v>Zacht wit sedimentair gesteente bestaande uit calciumcarbonaat, door de opeenstapeling van microscopische kalkskeletjes.</v>
+      </c>
+      <c r="L137" t="str">
+        <v>krijt</v>
+      </c>
+      <c r="M137" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N137" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
+      </c>
+      <c r="B138" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C138" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
+      </c>
+      <c r="D138" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
+      </c>
+      <c r="E138" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
+      </c>
+      <c r="F138" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/limestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks</v>
+      </c>
+      <c r="G138" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ks</v>
+      </c>
+      <c r="H138" t="str">
+        <v>Sedimentair gesteente dat hoofdzakelijk uit calciumcarbonaat bestaat, vaak door een opeenstapeling van (micro)fossielen met kalkcement.</v>
+      </c>
+      <c r="I138" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J138" t="str">
+        <v>KS</v>
+      </c>
+      <c r="K138" t="str">
+        <v>Sedimentair gesteente dat hoofdzakelijk uit calciumcarbonaat bestaat, vaak door een opeenstapeling van (micro)fossielen met kalkcement.</v>
+      </c>
+      <c r="L138" t="str">
+        <v>kalksteen</v>
+      </c>
+      <c r="M138" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N138" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
+      </c>
+      <c r="B139" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C139" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
+      </c>
+      <c r="D139" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
+      </c>
+      <c r="E139" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
+      </c>
+      <c r="F139" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/claystone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt</v>
+      </c>
+      <c r="G139" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kt</v>
+      </c>
+      <c r="H139" t="str">
+        <v>Gesteente dat hofdzakelijk bestaat uit een opeenstapeling van kleipartikels.</v>
+      </c>
+      <c r="I139" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J139" t="str">
+        <v>KT</v>
+      </c>
+      <c r="K139" t="str">
+        <v>Gesteente dat hofdzakelijk bestaat uit een opeenstapeling van kleipartikels.</v>
+      </c>
+      <c r="L139" t="str">
+        <v>kleisteen</v>
+      </c>
+      <c r="M139" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N139" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
+      </c>
+      <c r="B140" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C140" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
+      </c>
+      <c r="D140" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
+      </c>
+      <c r="E140" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
+      </c>
+      <c r="F140" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/quartzite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw</v>
+      </c>
+      <c r="G140" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kw</v>
+      </c>
+      <c r="H140" t="str">
+        <v>Metamorf gesteente hoodzakelijk bestaande uit kwarts, gevormd door omzetting van sedimentaire zandsteen onder hoge druk en temperatuur.</v>
+      </c>
+      <c r="I140" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J140" t="str">
+        <v>KW</v>
+      </c>
+      <c r="K140" t="str">
+        <v>Metamorf gesteente hoodzakelijk bestaande uit kwarts, gevormd door omzetting van sedimentaire zandsteen onder hoge druk en temperatuur.</v>
+      </c>
+      <c r="L140" t="str">
+        <v>kwartsiet</v>
+      </c>
+      <c r="M140" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N140" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kz</v>
+      </c>
+      <c r="B141" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C141" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="D141" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="E141" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="F141" t="str">
+        <v>null</v>
+      </c>
+      <c r="G141" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kz</v>
+      </c>
+      <c r="H141" t="str">
+        <v>Zandsteen waarbij de zandkorrels aan elkaar gekit zijn door een kalkcement.</v>
+      </c>
+      <c r="I141" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J141" t="str">
+        <v>KZ</v>
+      </c>
+      <c r="K141" t="str">
+        <v>Zandsteen waarbij de zandkorrels aan elkaar gekit zijn door een kalkcement.</v>
+      </c>
+      <c r="L141" t="str">
+        <v>kalkzandsteen</v>
+      </c>
+      <c r="M141" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N141" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
+      </c>
+      <c r="B142" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C142" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
+      </c>
+      <c r="D142" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
+      </c>
+      <c r="E142" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
+      </c>
+      <c r="F142" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/laterite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la</v>
+      </c>
+      <c r="G142" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.la</v>
+      </c>
+      <c r="H142" t="str">
+        <v>Oppervlakkige verweringslaag hoofdzakelijk bestaande uit kaoliniet, hematiet en gibbsiet, vaak gevormd in (sub)tropische omstandigheden.</v>
+      </c>
+      <c r="I142" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J142" t="str">
+        <v>LA</v>
+      </c>
+      <c r="K142" t="str">
+        <v>Oppervlakkige verweringslaag hoofdzakelijk bestaande uit kaoliniet, hematiet en gibbsiet, vaak gevormd in (sub)tropische omstandigheden.</v>
+      </c>
+      <c r="L142" t="str">
+        <v>lateriet</v>
+      </c>
+      <c r="M142" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N142" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le</v>
+      </c>
+      <c r="B143" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C143" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="D143" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="E143" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="F143" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="G143" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.le</v>
+      </c>
+      <c r="H143" t="str">
+        <v>Textuurtype of grondsoortnaam gebruikt voor het beschrijven van fijnkorrelig sediment als synoniem voor silt. Leem wordt ook gebruikt voor het beschrijven van fijnkorrelig sediment afgezet door de wind. 0.002-0.050 mm (Belgische bodemclassificatie)</v>
+      </c>
+      <c r="I143" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J143" t="str">
+        <v>LE</v>
+      </c>
+      <c r="K143" t="str">
+        <v>Textuurtype of grondsoortnaam gebruikt voor het beschrijven van fijnkorrelig sediment als synoniem voor silt. Leem wordt ook gebruikt voor het beschrijven van fijnkorrelig sediment afgezet door de wind. 0.002-0.050 mm (Belgische bodemclassificatie)</v>
+      </c>
+      <c r="L143" t="str">
+        <v>leem</v>
+      </c>
+      <c r="M143" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N143" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
+      </c>
+      <c r="B144" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C144" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
+      </c>
+      <c r="D144" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
+      </c>
+      <c r="E144" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
+      </c>
+      <c r="F144" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/lignite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg</v>
+      </c>
+      <c r="G144" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.lg</v>
+      </c>
+      <c r="H144" t="str">
+        <v>Bruinkool, gevormd door de diepere begraving van veen of turf.</v>
+      </c>
+      <c r="I144" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J144" t="str">
+        <v>LG</v>
+      </c>
+      <c r="K144" t="str">
+        <v>Bruinkool, gevormd door de diepere begraving van veen of turf.</v>
+      </c>
+      <c r="L144" t="str">
+        <v>ligniet</v>
+      </c>
+      <c r="M144" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N144" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li</v>
+      </c>
+      <c r="B145" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C145" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSediment</v>
+      </c>
+      <c r="D145" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSediment</v>
+      </c>
+      <c r="E145" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSediment</v>
+      </c>
+      <c r="F145" t="str">
+        <v>null</v>
+      </c>
+      <c r="G145" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.li</v>
+      </c>
+      <c r="H145" t="str">
+        <v>Amorf gehydrateerd ijzerhydroxide mineraal, gevormd door oxidatie van ijzerhoudende mineralen.</v>
+      </c>
+      <c r="I145" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J145" t="str">
+        <v>LI</v>
+      </c>
+      <c r="K145" t="str">
+        <v>Amorf gehydrateerd ijzerhydroxide mineraal, gevormd door oxidatie van ijzerhoudende mineralen.</v>
+      </c>
+      <c r="L145" t="str">
+        <v>limoniet</v>
+      </c>
+      <c r="M145" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N145" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
+      </c>
+      <c r="B146" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C146" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
+      </c>
+      <c r="D146" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
+      </c>
+      <c r="E146" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
+      </c>
+      <c r="F146" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/slate|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls</v>
+      </c>
+      <c r="G146" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ls</v>
+      </c>
+      <c r="H146" t="str">
+        <v>Metamorfe vorm van kleisteen met goed ontwikkelde splijtingsvlakken.</v>
+      </c>
+      <c r="I146" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J146" t="str">
+        <v>LS</v>
+      </c>
+      <c r="K146" t="str">
+        <v>Metamorfe vorm van kleisteen met goed ontwikkelde splijtingsvlakken.</v>
+      </c>
+      <c r="L146" t="str">
+        <v>leisteen</v>
+      </c>
+      <c r="M146" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N146" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
+      </c>
+      <c r="B147" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C147" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
+      </c>
+      <c r="D147" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
+      </c>
+      <c r="E147" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
+      </c>
+      <c r="F147" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/marble|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma</v>
+      </c>
+      <c r="G147" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ma</v>
+      </c>
+      <c r="H147" t="str">
+        <v>Metamorfe vorm van kalksteen.</v>
+      </c>
+      <c r="I147" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J147" t="str">
+        <v>MA</v>
+      </c>
+      <c r="K147" t="str">
+        <v>Metamorfe vorm van kalksteen.</v>
+      </c>
+      <c r="L147" t="str">
+        <v>marmer</v>
+      </c>
+      <c r="M147" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N147" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
+      </c>
+      <c r="B148" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C148" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
+      </c>
+      <c r="D148" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
+      </c>
+      <c r="E148" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
+      </c>
+      <c r="F148" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateMudstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me</v>
+      </c>
+      <c r="G148" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.me</v>
+      </c>
+      <c r="H148" t="str">
+        <v>Sterk kalkhoudende kleisteen.</v>
+      </c>
+      <c r="I148" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J148" t="str">
+        <v>ME</v>
+      </c>
+      <c r="K148" t="str">
+        <v>Sterk kalkhoudende kleisteen.</v>
+      </c>
+      <c r="L148" t="str">
+        <v>mergel</v>
+      </c>
+      <c r="M148" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N148" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg</v>
+      </c>
+      <c r="B149" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C149" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
+      </c>
+      <c r="D149" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
+      </c>
+      <c r="E149" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
+      </c>
+      <c r="F149" t="str">
+        <v>null</v>
+      </c>
+      <c r="G149" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.mg</v>
+      </c>
+      <c r="H149" t="str">
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 6.3 en 20 mm (ISO 14688), 5-20 mm (USDA Soil Classification).</v>
+      </c>
+      <c r="I149" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J149" t="str">
+        <v>MG</v>
+      </c>
+      <c r="K149" t="str">
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 6.3 en 20 mm (ISO 14688), 5-20 mm (USDA Soil Classification).</v>
+      </c>
+      <c r="L149" t="str">
+        <v>middelmatig grind</v>
+      </c>
+      <c r="M149" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N149" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+      </c>
+      <c r="B150" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C150" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+      </c>
+      <c r="D150" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+      </c>
+      <c r="E150" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+      </c>
+      <c r="F150" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+      </c>
+      <c r="G150" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.mm</v>
+      </c>
+      <c r="H150" t="str">
+        <v>Gesteente gevormd onder hoge druk en temperatuur, waarbij eerder gevormde sedimentaire of magmatische gesteenten veranderingen ondergaan.</v>
+      </c>
+      <c r="I150" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J150" t="str">
+        <v>MM</v>
+      </c>
+      <c r="K150" t="str">
+        <v>Gesteente gevormd onder hoge druk en temperatuur, waarbij eerder gevormde sedimentaire of magmatische gesteenten veranderingen ondergaan.</v>
+      </c>
+      <c r="L150" t="str">
+        <v>metamorf gesteente</v>
+      </c>
+      <c r="M150" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N150" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
+      </c>
+      <c r="B151" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C151" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
+      </c>
+      <c r="D151" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
+      </c>
+      <c r="E151" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
+      </c>
+      <c r="F151" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/micaSchist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms</v>
+      </c>
+      <c r="G151" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ms</v>
+      </c>
+      <c r="H151" t="str">
+        <v>Schist met een hoog gehalte aan mica's.</v>
+      </c>
+      <c r="I151" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J151" t="str">
+        <v>MS</v>
+      </c>
+      <c r="K151" t="str">
+        <v>Schist met een hoog gehalte aan mica's.</v>
+      </c>
+      <c r="L151" t="str">
+        <v>micaschist</v>
+      </c>
+      <c r="M151" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N151" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
+      </c>
+      <c r="B152" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C152" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
+      </c>
+      <c r="D152" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
+      </c>
+      <c r="E152" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
+      </c>
+      <c r="F152" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/myloniticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my</v>
+      </c>
+      <c r="G152" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.my</v>
+      </c>
+      <c r="H152" t="str">
+        <v>Sterk gefolieerd metamorf gesteente ontstaan door plastische deformatie in de diepe aardkorst en aardmantel.</v>
+      </c>
+      <c r="I152" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J152" t="str">
+        <v>MY</v>
+      </c>
+      <c r="K152" t="str">
+        <v>Sterk gefolieerd metamorf gesteente ontstaan door plastische deformatie in de diepe aardkorst en aardmantel.</v>
+      </c>
+      <c r="L152" t="str">
+        <v>myloniet</v>
+      </c>
+      <c r="M152" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N152" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz</v>
+      </c>
+      <c r="B153" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C153" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+      </c>
+      <c r="D153" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+      </c>
+      <c r="E153" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+      </c>
+      <c r="F153" t="str">
+        <v>null</v>
+      </c>
+      <c r="G153" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.mz</v>
+      </c>
+      <c r="H153" t="str">
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.200-0.630 mm (ISO 14688/ISO 11277), 0.250-0.500 mm (Udden-Wentworth).</v>
+      </c>
+      <c r="I153" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J153" t="str">
+        <v>MZ</v>
+      </c>
+      <c r="K153" t="str">
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.200-0.630 mm (ISO 14688/ISO 11277), 0.250-0.500 mm (Udden-Wentworth).</v>
+      </c>
+      <c r="L153" t="str">
+        <v>middelmatig zand</v>
+      </c>
+      <c r="M153" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N153" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/nu</v>
+      </c>
+      <c r="B154" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C154" t="str">
+        <v>null</v>
+      </c>
+      <c r="D154" t="str">
+        <v>null</v>
+      </c>
+      <c r="E154" t="str">
+        <v>null</v>
+      </c>
+      <c r="F154" t="str">
+        <v>null</v>
+      </c>
+      <c r="G154" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.nu</v>
+      </c>
+      <c r="H154" t="str">
+        <v>Eéncellige kalkschalige foraminiferen die enkele millimeter tot enkele centimeter groot kunnen worden.</v>
+      </c>
+      <c r="I154" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J154" t="str">
+        <v>NU</v>
+      </c>
+      <c r="K154" t="str">
+        <v>Eéncellige kalkschalige foraminiferen die enkele millimeter tot enkele centimeter groot kunnen worden.</v>
+      </c>
+      <c r="L154" t="str">
+        <v>nummulieten</v>
+      </c>
+      <c r="M154" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N154" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok</v>
+      </c>
+      <c r="B155" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C155" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryRock</v>
+      </c>
+      <c r="D155" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryRock</v>
+      </c>
+      <c r="E155" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryRock</v>
+      </c>
+      <c r="F155" t="str">
+        <v>null</v>
+      </c>
+      <c r="G155" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ok</v>
+      </c>
+      <c r="H155" t="str">
+        <v>Kalksteen rijk aan oölieten.</v>
+      </c>
+      <c r="I155" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J155" t="str">
+        <v>OK</v>
+      </c>
+      <c r="K155" t="str">
+        <v>Kalksteen rijk aan oölieten.</v>
+      </c>
+      <c r="L155" t="str">
+        <v>oölitische kalksteen</v>
+      </c>
+      <c r="M155" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N155" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+      </c>
+      <c r="B156" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C156" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+      </c>
+      <c r="D156" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+      </c>
+      <c r="E156" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+      </c>
+      <c r="F156" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+      </c>
+      <c r="G156" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.om</v>
+      </c>
+      <c r="H156" t="str">
+        <v>Afgestorven plantaardig en/of dierlijk materiaal, bestaande uit organische koolstofverbindingen.</v>
+      </c>
+      <c r="I156" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J156" t="str">
+        <v>OM</v>
+      </c>
+      <c r="K156" t="str">
+        <v>Afgestorven plantaardig en/of dierlijk materiaal, bestaande uit organische koolstofverbindingen.</v>
+      </c>
+      <c r="L156" t="str">
+        <v>organisch materiaal</v>
+      </c>
+      <c r="M156" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N156" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
+      </c>
+      <c r="B157" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C157" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
+      </c>
+      <c r="D157" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
+      </c>
+      <c r="E157" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
+      </c>
+      <c r="F157" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/pegmatite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe</v>
+      </c>
+      <c r="G157" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pe</v>
+      </c>
+      <c r="H157" t="str">
+        <v>Intrusief stollingsgesteente bestaande uit zeer grote kristallen.</v>
+      </c>
+      <c r="I157" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J157" t="str">
+        <v>PE</v>
+      </c>
+      <c r="K157" t="str">
+        <v>Intrusief stollingsgesteente bestaande uit zeer grote kristallen.</v>
+      </c>
+      <c r="L157" t="str">
+        <v>pegmatiet</v>
+      </c>
+      <c r="M157" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N157" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pk</v>
+      </c>
+      <c r="B158" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C158" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/coal</v>
+      </c>
+      <c r="D158" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/coal</v>
+      </c>
+      <c r="E158" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/coal</v>
+      </c>
+      <c r="F158" t="str">
+        <v>null</v>
+      </c>
+      <c r="G158" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pk</v>
+      </c>
+      <c r="H158" t="str">
+        <v>Actieve kool in poedervorm.</v>
+      </c>
+      <c r="I158" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J158" t="str">
+        <v>PK</v>
+      </c>
+      <c r="K158" t="str">
+        <v>Actieve kool in poedervorm.</v>
+      </c>
+      <c r="L158" t="str">
+        <v>poederkool</v>
+      </c>
+      <c r="M158" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N158" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl</v>
+      </c>
+      <c r="B159" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C159" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/organicRichSedimentaryMaterial</v>
+      </c>
+      <c r="D159" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/organicRichSedimentaryMaterial</v>
+      </c>
+      <c r="E159" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/organicRichSedimentaryMaterial</v>
+      </c>
+      <c r="F159" t="str">
+        <v>null</v>
+      </c>
+      <c r="G159" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pl</v>
+      </c>
+      <c r="H159" t="str">
+        <v>Afgestorven plantaardig materiaal.</v>
+      </c>
+      <c r="I159" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J159" t="str">
+        <v>PL</v>
+      </c>
+      <c r="K159" t="str">
+        <v>Afgestorven plantaardig materiaal.</v>
+      </c>
+      <c r="L159" t="str">
+        <v>plantenresten</v>
+      </c>
+      <c r="M159" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N159" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
+      </c>
+      <c r="B160" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C160" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
+      </c>
+      <c r="D160" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
+      </c>
+      <c r="E160" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
+      </c>
+      <c r="F160" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pumice|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm</v>
+      </c>
+      <c r="G160" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pm</v>
+      </c>
+      <c r="H160" t="str">
+        <v>Vulkanisch gesteente met hoge porositeit.</v>
+      </c>
+      <c r="I160" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J160" t="str">
+        <v>PM</v>
+      </c>
+      <c r="K160" t="str">
+        <v>Vulkanisch gesteente met hoge porositeit.</v>
+      </c>
+      <c r="L160" t="str">
+        <v>puimsteen</v>
+      </c>
+      <c r="M160" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N160" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps</v>
+      </c>
+      <c r="B161" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C161" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="D161" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="E161" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sandstone</v>
+      </c>
+      <c r="F161" t="str">
+        <v>null</v>
+      </c>
+      <c r="G161" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ps</v>
+      </c>
+      <c r="H161" t="str">
+        <v>Zandsteen, als protoliet van een metamorf gesteente.</v>
+      </c>
+      <c r="I161" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J161" t="str">
+        <v>PS</v>
+      </c>
+      <c r="K161" t="str">
+        <v>Zandsteen, als protoliet van een metamorf gesteente.</v>
+      </c>
+      <c r="L161" t="str">
+        <v>psammiet</v>
+      </c>
+      <c r="M161" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N161" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu</v>
+      </c>
+      <c r="B162" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C162" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/AnthropogenicGeomorphologicFeatureTypeValue/dump</v>
+      </c>
+      <c r="D162" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/AnthropogenicGeomorphologicFeatureTypeValue/dump</v>
+      </c>
+      <c r="E162" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/AnthropogenicGeomorphologicFeatureTypeValue/dump</v>
+      </c>
+      <c r="F162" t="str">
+        <v>null</v>
+      </c>
+      <c r="G162" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.pu</v>
+      </c>
+      <c r="H162" t="str">
+        <v>Fragmenten van allerlei stenen, bakstenen, afval die voorkomen in een matrix van ander materiaal.</v>
+      </c>
+      <c r="I162" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J162" t="str">
+        <v>PU</v>
+      </c>
+      <c r="K162" t="str">
+        <v>Fragmenten van allerlei stenen, bakstenen, afval die voorkomen in een matrix van ander materiaal.</v>
+      </c>
+      <c r="L162" t="str">
+        <v>puin</v>
+      </c>
+      <c r="M162" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N162" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
+      </c>
+      <c r="B163" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C163" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
+      </c>
+      <c r="D163" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
+      </c>
+      <c r="E163" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
+      </c>
+      <c r="F163" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/pyrite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py</v>
+      </c>
+      <c r="G163" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.py</v>
+      </c>
+      <c r="H163" t="str">
+        <v>Goudkleurig kubisch ijzersulfide mineraal.</v>
+      </c>
+      <c r="I163" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J163" t="str">
+        <v>PY</v>
+      </c>
+      <c r="K163" t="str">
+        <v>Goudkleurig kubisch ijzersulfide mineraal.</v>
+      </c>
+      <c r="L163" t="str">
+        <v>pyriet</v>
+      </c>
+      <c r="M163" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N163" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
+      </c>
+      <c r="B164" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C164" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
+      </c>
+      <c r="D164" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
+      </c>
+      <c r="E164" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
+      </c>
+      <c r="F164" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/quartz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu</v>
+      </c>
+      <c r="G164" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.qu</v>
+      </c>
+      <c r="H164" t="str">
+        <v>Mineraal bestaande uit siliciumdioxide, meestal het hoofdbestanddeel van zand.</v>
+      </c>
+      <c r="I164" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J164" t="str">
+        <v>QU</v>
+      </c>
+      <c r="K164" t="str">
+        <v>Mineraal bestaande uit siliciumdioxide, meestal het hoofdbestanddeel van zand.</v>
+      </c>
+      <c r="L164" t="str">
+        <v>kwarts</v>
+      </c>
+      <c r="M164" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N164" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
+      </c>
+      <c r="B165" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C165" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
+      </c>
+      <c r="D165" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
+      </c>
+      <c r="E165" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
+      </c>
+      <c r="F165" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro</v>
+      </c>
+      <c r="G165" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ro</v>
+      </c>
+      <c r="H165" t="str">
+        <v>Hard gesteente.</v>
+      </c>
+      <c r="I165" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J165" t="str">
+        <v>RO</v>
+      </c>
+      <c r="K165" t="str">
+        <v>Hard gesteente.</v>
+      </c>
+      <c r="L165" t="str">
+        <v>rots</v>
+      </c>
+      <c r="M165" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N165" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv</v>
+      </c>
+      <c r="B166" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C166" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/residualMaterial</v>
+      </c>
+      <c r="D166" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/residualMaterial</v>
+      </c>
+      <c r="E166" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/residualMaterial</v>
+      </c>
+      <c r="F166" t="str">
+        <v>null</v>
+      </c>
+      <c r="G166" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.rv</v>
+      </c>
+      <c r="H166" t="str">
+        <v>Rots die deels verbrokkeld en/of omgezet is door processen van fysische en/of chemische verwering.</v>
+      </c>
+      <c r="I166" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J166" t="str">
+        <v>RV</v>
+      </c>
+      <c r="K166" t="str">
+        <v>Rots die deels verbrokkeld en/of omgezet is door processen van fysische en/of chemische verwering.</v>
+      </c>
+      <c r="L166" t="str">
+        <v>verweerde rots</v>
+      </c>
+      <c r="M166" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N166" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc</v>
+      </c>
+      <c r="B167" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C167" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+      </c>
+      <c r="D167" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+      </c>
+      <c r="E167" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryMaterial</v>
+      </c>
+      <c r="F167" t="str">
+        <v>null</v>
+      </c>
+      <c r="G167" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sc</v>
+      </c>
+      <c r="H167" t="str">
+        <v>Een uit kalk of andere mineralen bestaand uitwendig skelet van weekdieren.</v>
+      </c>
+      <c r="I167" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J167" t="str">
+        <v>SC</v>
+      </c>
+      <c r="K167" t="str">
+        <v>Een uit kalk of andere mineralen bestaand uitwendig skelet van weekdieren.</v>
+      </c>
+      <c r="L167" t="str">
+        <v>schelpen</v>
+      </c>
+      <c r="M167" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N167" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sd</v>
+      </c>
+      <c r="B168" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C168" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSediment</v>
+      </c>
+      <c r="D168" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSediment</v>
+      </c>
+      <c r="E168" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSediment</v>
+      </c>
+      <c r="F168" t="str">
+        <v>null</v>
+      </c>
+      <c r="G168" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sd</v>
+      </c>
+      <c r="H168" t="str">
+        <v>IJzercarbonaatmineraal.</v>
+      </c>
+      <c r="I168" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J168" t="str">
+        <v>SD</v>
+      </c>
+      <c r="K168" t="str">
+        <v>IJzercarbonaatmineraal.</v>
+      </c>
+      <c r="L168" t="str">
+        <v>sideriet</v>
+      </c>
+      <c r="M168" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N168" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
+      </c>
+      <c r="B169" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C169" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
+      </c>
+      <c r="D169" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
+      </c>
+      <c r="E169" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
+      </c>
+      <c r="F169" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sedimentaryMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se</v>
+      </c>
+      <c r="G169" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.se</v>
+      </c>
+      <c r="H169" t="str">
+        <v>Afgezet door bezinking in een vloeibaar medium, zoals water of lucht.</v>
+      </c>
+      <c r="I169" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J169" t="str">
+        <v>SE</v>
+      </c>
+      <c r="K169" t="str">
+        <v>Afgezet door bezinking in een vloeibaar medium, zoals water of lucht.</v>
+      </c>
+      <c r="L169" t="str">
+        <v>sedimentair</v>
+      </c>
+      <c r="M169" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N169" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf</v>
+      </c>
+      <c r="B170" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C170" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="D170" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="E170" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="F170" t="str">
+        <v>null</v>
+      </c>
+      <c r="G170" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sf</v>
+      </c>
+      <c r="H170" t="str">
+        <v>Afgebroken of verbrijzelde fragmenten van schelpen.</v>
+      </c>
+      <c r="I170" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J170" t="str">
+        <v>SF</v>
+      </c>
+      <c r="K170" t="str">
+        <v>Afgebroken of verbrijzelde fragmenten van schelpen.</v>
+      </c>
+      <c r="L170" t="str">
+        <v>schelpfragmenten</v>
+      </c>
+      <c r="M170" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N170" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg</v>
+      </c>
+      <c r="B171" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C171" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="D171" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="E171" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/shellGrit</v>
+      </c>
+      <c r="F171" t="str">
+        <v>null</v>
+      </c>
+      <c r="G171" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sg</v>
+      </c>
+      <c r="H171" t="str">
+        <v>Vergruisde schelpfragmenten.</v>
+      </c>
+      <c r="I171" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J171" t="str">
+        <v>SG</v>
+      </c>
+      <c r="K171" t="str">
+        <v>Vergruisde schelpfragmenten.</v>
+      </c>
+      <c r="L171" t="str">
+        <v>schelpgruis</v>
+      </c>
+      <c r="M171" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N171" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh</v>
+      </c>
+      <c r="B172" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C172" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="D172" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="E172" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="F172" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="G172" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sh</v>
+      </c>
+      <c r="H172" t="str">
+        <v>Kleisteen met ontwikkelde splijting.</v>
+      </c>
+      <c r="I172" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J172" t="str">
+        <v>SH</v>
+      </c>
+      <c r="K172" t="str">
+        <v>Kleisteen met ontwikkelde splijting.</v>
+      </c>
+      <c r="L172" t="str">
+        <v>schalie</v>
+      </c>
+      <c r="M172" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N172" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="B173" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C173" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="D173" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="E173" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="F173" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si</v>
+      </c>
+      <c r="G173" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.si</v>
+      </c>
+      <c r="H173" t="str">
+        <v>Fijnkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 0.002-0.063 mm (ISO 14688/ISO 11277), 0.002-0.05 mm (USDA Soil Classification), 0.004-0.063 mm (Udden-Wentworth), in de Belgische bodemclassificatie wordt dit leem genoemd (0.002 - 0.050 mm)</v>
+      </c>
+      <c r="I173" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J173" t="str">
+        <v>SI</v>
+      </c>
+      <c r="K173" t="str">
+        <v>Fijnkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 0.002-0.063 mm (ISO 14688/ISO 11277), 0.002-0.05 mm (USDA Soil Classification), 0.004-0.063 mm (Udden-Wentworth), in de Belgische bodemclassificatie wordt dit leem genoemd (0.002 - 0.050 mm)</v>
+      </c>
+      <c r="L173" t="str">
+        <v>silt</v>
+      </c>
+      <c r="M173" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N173" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk</v>
+      </c>
+      <c r="B174" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C174" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryRock</v>
+      </c>
+      <c r="D174" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryRock</v>
+      </c>
+      <c r="E174" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateSedimentaryRock</v>
+      </c>
+      <c r="F174" t="str">
+        <v>null</v>
+      </c>
+      <c r="G174" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sk</v>
+      </c>
+      <c r="H174" t="str">
+        <v>Kleirijke kalksteen met ontwikkeling van splijting.</v>
+      </c>
+      <c r="I174" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J174" t="str">
+        <v>SK</v>
+      </c>
+      <c r="K174" t="str">
+        <v>Kleirijke kalksteen met ontwikkeling van splijting.</v>
+      </c>
+      <c r="L174" t="str">
+        <v>schieferige kalksteen</v>
+      </c>
+      <c r="M174" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N174" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl</v>
+      </c>
+      <c r="B175" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C175" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/mud</v>
+      </c>
+      <c r="D175" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/mud</v>
+      </c>
+      <c r="E175" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/mud</v>
+      </c>
+      <c r="F175" t="str">
+        <v>null</v>
+      </c>
+      <c r="G175" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sl</v>
+      </c>
+      <c r="H175" t="str">
+        <v>Modderige kleiige afzetting op een waterbodem.</v>
+      </c>
+      <c r="I175" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J175" t="str">
+        <v>SL</v>
+      </c>
+      <c r="K175" t="str">
+        <v>Modderige kleiige afzetting op een waterbodem.</v>
+      </c>
+      <c r="L175" t="str">
+        <v>slib</v>
+      </c>
+      <c r="M175" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N175" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn</v>
+      </c>
+      <c r="B176" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C176" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/aggregate</v>
+      </c>
+      <c r="D176" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/aggregate</v>
+      </c>
+      <c r="E176" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/aggregate</v>
+      </c>
+      <c r="F176" t="str">
+        <v>null</v>
+      </c>
+      <c r="G176" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sn</v>
+      </c>
+      <c r="H176" t="str">
+        <v>Fragmenten van gesteenten die voorkomen in een matrix van ander materiaal.</v>
+      </c>
+      <c r="I176" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J176" t="str">
+        <v>SN</v>
+      </c>
+      <c r="K176" t="str">
+        <v>Fragmenten van gesteenten die voorkomen in een matrix van ander materiaal.</v>
+      </c>
+      <c r="L176" t="str">
+        <v>steenfragmenten</v>
+      </c>
+      <c r="M176" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N176" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so</v>
+      </c>
+      <c r="B177" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C177" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousMaterial</v>
+      </c>
+      <c r="D177" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousMaterial</v>
+      </c>
+      <c r="E177" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousMaterial</v>
+      </c>
+      <c r="F177" t="str">
+        <v>null</v>
+      </c>
+      <c r="G177" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.so</v>
+      </c>
+      <c r="H177" t="str">
+        <v>Donker poreus vulkanische gesteente, mafische variant van puimsteen.</v>
+      </c>
+      <c r="I177" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J177" t="str">
+        <v>SO</v>
+      </c>
+      <c r="K177" t="str">
+        <v>Donker poreus vulkanische gesteente, mafische variant van puimsteen.</v>
+      </c>
+      <c r="L177" t="str">
+        <v>scoria</v>
+      </c>
+      <c r="M177" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N177" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="B178" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C178" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="D178" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="E178" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="F178" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/shale|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr</v>
+      </c>
+      <c r="G178" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sr</v>
+      </c>
+      <c r="H178" t="str">
+        <v>Kleisteen met goed ontwikkelde splijting.</v>
+      </c>
+      <c r="I178" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J178" t="str">
+        <v>SR</v>
+      </c>
+      <c r="K178" t="str">
+        <v>Kleisteen met goed ontwikkelde splijting.</v>
+      </c>
+      <c r="L178" t="str">
+        <v>schiefer</v>
+      </c>
+      <c r="M178" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N178" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
+      </c>
+      <c r="B179" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C179" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
+      </c>
+      <c r="D179" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
+      </c>
+      <c r="E179" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
+      </c>
+      <c r="F179" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/siltstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss</v>
+      </c>
+      <c r="G179" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ss</v>
+      </c>
+      <c r="H179" t="str">
+        <v>Siltsteen is een sediment dat bestaat uit silt. Door diagenese is het sediment verhard tot steen.</v>
+      </c>
+      <c r="I179" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J179" t="str">
+        <v>SS</v>
+      </c>
+      <c r="K179" t="str">
+        <v>Siltsteen is een sediment dat bestaat uit silt. Door diagenese is het sediment verhard tot steen.</v>
+      </c>
+      <c r="L179" t="str">
+        <v>siltsteen</v>
+      </c>
+      <c r="M179" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N179" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st</v>
+      </c>
+      <c r="B180" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C180" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/aggregate</v>
+      </c>
+      <c r="D180" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/aggregate</v>
+      </c>
+      <c r="E180" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/aggregate</v>
+      </c>
+      <c r="F180" t="str">
+        <v>null</v>
+      </c>
+      <c r="G180" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.st</v>
+      </c>
+      <c r="H180" t="str">
+        <v>Stenen waarvan de diameter kan verschillen al naar gelang de gevolgde classificatie: 63-200 mm (ISO 14688), 64-256 mm (Udden-Wentworth), 76-250 mm (USDA Soil Classification), &gt; 200 mm (Belgische bodemclassificatie met daarnaast keien (75-200 mm).</v>
+      </c>
+      <c r="I180" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J180" t="str">
+        <v>ST</v>
+      </c>
+      <c r="K180" t="str">
+        <v>Stenen waarvan de diameter kan verschillen al naar gelang de gevolgde classificatie: 63-200 mm (ISO 14688), 64-256 mm (Udden-Wentworth), 76-250 mm (USDA Soil Classification), &gt; 200 mm (Belgische bodemclassificatie met daarnaast keien (75-200 mm).</v>
+      </c>
+      <c r="L180" t="str">
+        <v>stenen</v>
+      </c>
+      <c r="M180" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N180" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
+      </c>
+      <c r="B181" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C181" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
+      </c>
+      <c r="D181" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
+      </c>
+      <c r="E181" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
+      </c>
+      <c r="F181" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/silica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx</v>
+      </c>
+      <c r="G181" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sx</v>
+      </c>
+      <c r="H181" t="str">
+        <v>Cryptokristallijne vorm van kwarts, ook wel vuursteen, chert of flint genoemd.</v>
+      </c>
+      <c r="I181" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J181" t="str">
+        <v>SX</v>
+      </c>
+      <c r="K181" t="str">
+        <v>Cryptokristallijne vorm van kwarts, ook wel vuursteen, chert of flint genoemd.</v>
+      </c>
+      <c r="L181" t="str">
+        <v>silex</v>
+      </c>
+      <c r="M181" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N181" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
+      </c>
+      <c r="B182" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C182" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
+      </c>
+      <c r="D182" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
+      </c>
+      <c r="E182" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
+      </c>
+      <c r="F182" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/schist|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy</v>
+      </c>
+      <c r="G182" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.sy</v>
+      </c>
+      <c r="H182" t="str">
+        <v>Metamorfe vorm van kleisteen met een hogere graad dan leisteen en fylliet, met duidelijke foliaties.</v>
+      </c>
+      <c r="I182" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J182" t="str">
+        <v>SY</v>
+      </c>
+      <c r="K182" t="str">
+        <v>Metamorfe vorm van kleisteen met een hogere graad dan leisteen en fylliet, met duidelijke foliaties.</v>
+      </c>
+      <c r="L182" t="str">
+        <v>schist</v>
+      </c>
+      <c r="M182" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N182" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta</v>
+      </c>
+      <c r="B183" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C183" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil</v>
+      </c>
+      <c r="D183" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil</v>
+      </c>
+      <c r="E183" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil</v>
+      </c>
+      <c r="F183" t="str">
+        <v>null</v>
+      </c>
+      <c r="G183" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ta</v>
+      </c>
+      <c r="H183" t="str">
+        <v>Een mengeling van organische stof (humus) en minerale delen.</v>
+      </c>
+      <c r="I183" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J183" t="str">
+        <v>TA</v>
+      </c>
+      <c r="K183" t="str">
+        <v>Een mengeling van organische stof (humus) en minerale delen.</v>
+      </c>
+      <c r="L183" t="str">
+        <v>teelaarde</v>
+      </c>
+      <c r="M183" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N183" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
+      </c>
+      <c r="B184" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C184" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
+      </c>
+      <c r="D184" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
+      </c>
+      <c r="E184" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
+      </c>
+      <c r="F184" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/tuffite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts</v>
+      </c>
+      <c r="G184" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ts</v>
+      </c>
+      <c r="H184" t="str">
+        <v>Zacht poreus gesteente gevormd door compactie van vulkanische as.</v>
+      </c>
+      <c r="I184" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J184" t="str">
+        <v>TS</v>
+      </c>
+      <c r="K184" t="str">
+        <v>Zacht poreus gesteente gevormd door compactie van vulkanische as.</v>
+      </c>
+      <c r="L184" t="str">
+        <v>tufsteen (tuffeau)</v>
+      </c>
+      <c r="M184" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N184" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
+      </c>
+      <c r="B185" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C185" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
+      </c>
+      <c r="D185" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
+      </c>
+      <c r="E185" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
+      </c>
+      <c r="F185" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ashTuffLapillistoneAndLapilliTuff|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu</v>
+      </c>
+      <c r="G185" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.tu</v>
+      </c>
+      <c r="H185" t="str">
+        <v>Vulkanische as.</v>
+      </c>
+      <c r="I185" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J185" t="str">
+        <v>TU</v>
+      </c>
+      <c r="K185" t="str">
+        <v>Vulkanische as.</v>
+      </c>
+      <c r="L185" t="str">
+        <v>tuff</v>
+      </c>
+      <c r="M185" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N185" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
+      </c>
+      <c r="B186" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C186" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
+      </c>
+      <c r="D186" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
+      </c>
+      <c r="E186" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
+      </c>
+      <c r="F186" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/peat|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve</v>
+      </c>
+      <c r="G186" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ve</v>
+      </c>
+      <c r="H186" t="str">
+        <v>Een bodem- of grondlaag waarvan de dikte typisch groter is dan 30 cm en die meer dan 40 % organisch materiaal bevat.</v>
+      </c>
+      <c r="I186" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J186" t="str">
+        <v>VE</v>
+      </c>
+      <c r="K186" t="str">
+        <v>Een bodem- of grondlaag waarvan de dikte typisch groter is dan 30 cm en die meer dan 40 % organisch materiaal bevat.</v>
+      </c>
+      <c r="L186" t="str">
+        <v>veen</v>
+      </c>
+      <c r="M186" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N186" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vg</v>
+      </c>
+      <c r="B187" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C187" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+      </c>
+      <c r="D187" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+      </c>
+      <c r="E187" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+      </c>
+      <c r="F187" t="str">
+        <v>null</v>
+      </c>
+      <c r="G187" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.vg</v>
+      </c>
+      <c r="H187" t="str">
+        <v>Uitvloeiingsgesteente, gevormd door het stollen van lava aan het oppervlak bij vulkanische activiteit.</v>
+      </c>
+      <c r="I187" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J187" t="str">
+        <v>VG</v>
+      </c>
+      <c r="K187" t="str">
+        <v>Uitvloeiingsgesteente, gevormd door het stollen van lava aan het oppervlak bij vulkanische activiteit.</v>
+      </c>
+      <c r="L187" t="str">
+        <v>vulkanisch gesteente</v>
+      </c>
+      <c r="M187" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N187" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
+      </c>
+      <c r="B188" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C188" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
+      </c>
+      <c r="D188" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
+      </c>
+      <c r="E188" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
+      </c>
+      <c r="F188" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/chert|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs</v>
+      </c>
+      <c r="G188" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.vs</v>
+      </c>
+      <c r="H188" t="str">
+        <v>Cryptokristallijne vorm van kwarts, ook wel silex, chert of flint genoemd.</v>
+      </c>
+      <c r="I188" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J188" t="str">
+        <v>VS</v>
+      </c>
+      <c r="K188" t="str">
+        <v>Cryptokristallijne vorm van kwarts, ook wel silex, chert of flint genoemd.</v>
+      </c>
+      <c r="L188" t="str">
+        <v>vuursteen</v>
+      </c>
+      <c r="M188" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N188" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
+      </c>
+      <c r="B189" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C189" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
+      </c>
+      <c r="D189" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
+      </c>
+      <c r="E189" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
+      </c>
+      <c r="F189" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/carbonateWackestone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws</v>
+      </c>
+      <c r="G189" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ws</v>
+      </c>
+      <c r="H189" t="str">
+        <v>Kalksteen met een kleimatrix.</v>
+      </c>
+      <c r="I189" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J189" t="str">
+        <v>WS</v>
+      </c>
+      <c r="K189" t="str">
+        <v>Kalksteen met een kleimatrix.</v>
+      </c>
+      <c r="L189" t="str">
+        <v>wacksteen</v>
+      </c>
+      <c r="M189" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N189" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
+      </c>
+      <c r="B190" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C190" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
+      </c>
+      <c r="D190" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
+      </c>
+      <c r="E190" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
+      </c>
+      <c r="F190" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg</v>
+      </c>
+      <c r="G190" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.xg</v>
+      </c>
+      <c r="H190" t="str">
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 2.00-63 mm (ISO 14688), 2-64 mm (Udden-Wentworth), 2-76 mm (USDA Soil Classification), 2-75 mm (Belgische bodemclassificatie).</v>
+      </c>
+      <c r="I190" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J190" t="str">
+        <v>XG</v>
+      </c>
+      <c r="K190" t="str">
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 2.00-63 mm (ISO 14688), 2-64 mm (Udden-Wentworth), 2-76 mm (USDA Soil Classification), 2-75 mm (Belgische bodemclassificatie).</v>
+      </c>
+      <c r="L190" t="str">
+        <v>grind</v>
+      </c>
+      <c r="M190" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N190" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xx</v>
+      </c>
+      <c r="B191" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C191" t="str">
+        <v>null</v>
+      </c>
+      <c r="D191" t="str">
+        <v>null</v>
+      </c>
+      <c r="E191" t="str">
+        <v>null</v>
+      </c>
+      <c r="F191" t="str">
+        <v>null</v>
+      </c>
+      <c r="G191" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.xx</v>
+      </c>
+      <c r="H191" t="str">
+        <v>Onbekend.</v>
+      </c>
+      <c r="I191" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J191" t="str">
+        <v>XX</v>
+      </c>
+      <c r="K191" t="str">
+        <v>Onbekend.</v>
+      </c>
+      <c r="L191" t="str">
+        <v>onbekend</v>
+      </c>
+      <c r="M191" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N191" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
+      </c>
+      <c r="B192" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C192" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
+      </c>
+      <c r="D192" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
+      </c>
+      <c r="E192" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
+      </c>
+      <c r="F192" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz</v>
+      </c>
+      <c r="G192" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.xz</v>
+      </c>
+      <c r="H192" t="str">
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.063-2.000 mm (ISO 14688/ ISO 11277), 0.063-2.000 mm (Udden-Wentworth): 0.050-2.000 mm (USDA Soil Classification en Belgische bodemclassificatie).</v>
+      </c>
+      <c r="I192" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J192" t="str">
+        <v>XZ</v>
+      </c>
+      <c r="K192" t="str">
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.063-2.000 mm (ISO 14688/ ISO 11277), 0.063-2.000 mm (Udden-Wentworth): 0.050-2.000 mm (USDA Soil Classification en Belgische bodemclassificatie).</v>
+      </c>
+      <c r="L192" t="str">
+        <v>zand</v>
+      </c>
+      <c r="M192" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N192" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl</v>
+      </c>
+      <c r="B193" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C193" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt</v>
+      </c>
+      <c r="D193" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt</v>
+      </c>
+      <c r="E193" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/silt</v>
+      </c>
+      <c r="F193" t="str">
+        <v>null</v>
+      </c>
+      <c r="G193" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.zl</v>
+      </c>
+      <c r="H193" t="str">
+        <v>Textuurtype of naam gebruikt voor het beschrijven van fijnkorrelig sediment dat voornamelijk bestaat uit een mengsel van zand en leem of silt. Op een bodemtextuur of driehoeksdriagramma komen deze sedimenten uit in zones P en L.</v>
+      </c>
+      <c r="I193" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J193" t="str">
+        <v>ZL</v>
+      </c>
+      <c r="K193" t="str">
+        <v>Textuurtype of naam gebruikt voor het beschrijven van fijnkorrelig sediment dat voornamelijk bestaat uit een mengsel van zand en leem of silt. Op een bodemtextuur of driehoeksdriagramma komen deze sedimenten uit in zones P en L.</v>
+      </c>
+      <c r="L193" t="str">
+        <v>zandleem</v>
+      </c>
+      <c r="M193" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N193" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
+      </c>
+      <c r="B194" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C194" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
+      </c>
+      <c r="D194" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
+      </c>
+      <c r="E194" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
+      </c>
+      <c r="F194" t="str">
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/genericSandstone|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
+      </c>
+      <c r="G194" t="str">
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.zs</v>
+      </c>
+      <c r="H194" t="str">
+        <v>Gesteente dat hoofdzakelijk bestaat uit aaneengekitte zandkorrels.</v>
+      </c>
+      <c r="I194" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="J194" t="str">
+        <v>ZS</v>
+      </c>
+      <c r="K194" t="str">
+        <v>Gesteente dat hoofdzakelijk bestaat uit aaneengekitte zandkorrels.</v>
+      </c>
+      <c r="L194" t="str">
+        <v>zandsteen</v>
+      </c>
+      <c r="M194" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="N194" t="str">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
+      </c>
+      <c r="B195" t="str">
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
-      <c r="C131" t="str">
+      <c r="C195" t="str">
+        <v>null</v>
+      </c>
+      <c r="D195" t="str">
+        <v>null</v>
+      </c>
+      <c r="E195" t="str">
+        <v>null</v>
+      </c>
+      <c r="F195" t="str">
+        <v>null</v>
+      </c>
+      <c r="G195" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.hoofdnaam</v>
       </c>
-      <c r="D131" t="str">
-        <v>null</v>
-      </c>
-      <c r="E131" t="str">
-        <v>null</v>
-      </c>
-      <c r="F131" t="str">
+      <c r="H195" t="str">
+        <v>null</v>
+      </c>
+      <c r="I195" t="str">
+        <v>null</v>
+      </c>
+      <c r="J195" t="str">
+        <v>null</v>
+      </c>
+      <c r="K195" t="str">
+        <v>null</v>
+      </c>
+      <c r="L195" t="str">
         <v>lijst van hoofdnamen</v>
       </c>
-      <c r="G131" t="str">
-        <v>null</v>
-      </c>
-      <c r="H131" t="str">
-        <v>null</v>
-      </c>
-      <c r="I131" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ab|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ac|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ag|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/cb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ct|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/db|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/de|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ea|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ec|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ge|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ia|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/in|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mi|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/nn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ra|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sp|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/va|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/wa|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xx|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ze|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs</v>
+      <c r="M195" t="str">
+        <v>null</v>
+      </c>
+      <c r="N195" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ak|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/as|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/nu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xx</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>https://inspire.ec.europa.eu/codelist/LithologyValue/mud</v>
+      </c>
+      <c r="B196" t="str">
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+      </c>
+      <c r="C196" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl</v>
+      </c>
+      <c r="D196" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl</v>
+      </c>
+      <c r="E196" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl</v>
+      </c>
+      <c r="F196" t="str">
+        <v>null</v>
+      </c>
+      <c r="G196" t="str">
+        <v>null</v>
+      </c>
+      <c r="H196" t="str">
+        <v>null</v>
+      </c>
+      <c r="I196" t="str">
+        <v>null</v>
+      </c>
+      <c r="J196" t="str">
+        <v>null</v>
+      </c>
+      <c r="K196" t="str">
+        <v>null</v>
+      </c>
+      <c r="L196" t="str">
+        <v>null</v>
+      </c>
+      <c r="M196" t="str">
+        <v>null</v>
+      </c>
+      <c r="N196" t="str">
+        <v>null</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I131"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N196"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/hoofdnaam/hoofdnaam.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/hoofdnaam/hoofdnaam.xlsx
@@ -850,16 +850,16 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="D11" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="E11" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="F11" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="G11" t="str">
         <v>null</v>
@@ -1466,16 +1466,16 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="D25" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="E25" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="F25" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="G25" t="str">
         <v>null</v>
@@ -2918,13 +2918,13 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C58" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ge|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
       </c>
       <c r="D58" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ge|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
       </c>
       <c r="E58" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ge|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
       </c>
       <c r="F58" t="str">
         <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm</v>
@@ -4760,40 +4760,40 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="B100" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C100" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="D100" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="E100" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="F100" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
       </c>
       <c r="G100" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.co2</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.da</v>
       </c>
       <c r="H100" t="str">
-        <v>Gesteente hoofdzakelijk bestaande uit organisch materiaal, gevormd na diepe begraving onder hoge druk en temperatuur.</v>
+        <v>Felsisch uitvloeiingsgesteente.</v>
       </c>
       <c r="I100" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J100" t="str">
-        <v>CO2</v>
+        <v>DA</v>
       </c>
       <c r="K100" t="str">
-        <v>Gesteente hoofdzakelijk bestaande uit organisch materiaal, gevormd na diepe begraving onder hoge druk en temperatuur.</v>
+        <v>Felsisch uitvloeiingsgesteente.</v>
       </c>
       <c r="L100" t="str">
-        <v>steenkool</v>
+        <v>daciet</v>
       </c>
       <c r="M100" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -4804,40 +4804,40 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="B101" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C101" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="D101" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="E101" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="F101" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dacite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
       </c>
       <c r="G101" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.da</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dk</v>
       </c>
       <c r="H101" t="str">
-        <v>Felsisch uitvloeiingsgesteente.</v>
+        <v>Kalksteen grotendeels bestaande uit dolomiet.</v>
       </c>
       <c r="I101" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J101" t="str">
-        <v>DA</v>
+        <v>DK</v>
       </c>
       <c r="K101" t="str">
-        <v>Felsisch uitvloeiingsgesteente.</v>
+        <v>Kalksteen grotendeels bestaande uit dolomiet.</v>
       </c>
       <c r="L101" t="str">
-        <v>daciet</v>
+        <v>dolomitische kalksteen</v>
       </c>
       <c r="M101" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -4848,40 +4848,40 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="B102" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C102" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="D102" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="E102" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="F102" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/impureDolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
       </c>
       <c r="G102" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dk</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dl</v>
       </c>
       <c r="H102" t="str">
-        <v>Kalksteen grotendeels bestaande uit dolomiet.</v>
+        <v>Mafisch intrusief stollingsgesteente, ganggesteente.</v>
       </c>
       <c r="I102" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J102" t="str">
-        <v>DK</v>
+        <v>DL</v>
       </c>
       <c r="K102" t="str">
-        <v>Kalksteen grotendeels bestaande uit dolomiet.</v>
+        <v>Mafisch intrusief stollingsgesteente, ganggesteente.</v>
       </c>
       <c r="L102" t="str">
-        <v>dolomitische kalksteen</v>
+        <v>doleriet</v>
       </c>
       <c r="M102" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -4892,40 +4892,40 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="B103" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C103" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="D103" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="E103" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="F103" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/doleriticRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
       </c>
       <c r="G103" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dl</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.do</v>
       </c>
       <c r="H103" t="str">
-        <v>Mafisch intrusief stollingsgesteente, ganggesteente.</v>
+        <v>Carbonaatmineraal bestaande uit calciummagnesiumcarbonaat, of gesteente bestaande uit het mineraal dolomiet.</v>
       </c>
       <c r="I103" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J103" t="str">
-        <v>DL</v>
+        <v>DO</v>
       </c>
       <c r="K103" t="str">
-        <v>Mafisch intrusief stollingsgesteente, ganggesteente.</v>
+        <v>Carbonaatmineraal bestaande uit calciummagnesiumcarbonaat, of gesteente bestaande uit het mineraal dolomiet.</v>
       </c>
       <c r="L103" t="str">
-        <v>doleriet</v>
+        <v>dolomiet</v>
       </c>
       <c r="M103" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -4936,40 +4936,40 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="B104" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C104" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="D104" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="E104" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="F104" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/dolomite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
       </c>
       <c r="G104" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.do</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dr</v>
       </c>
       <c r="H104" t="str">
-        <v>Carbonaatmineraal bestaande uit calciummagnesiumcarbonaat, of gesteente bestaande uit het mineraal dolomiet.</v>
+        <v>Intermediair intrusief stollingsgesteente.</v>
       </c>
       <c r="I104" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J104" t="str">
-        <v>DO</v>
+        <v>DR</v>
       </c>
       <c r="K104" t="str">
-        <v>Carbonaatmineraal bestaande uit calciummagnesiumcarbonaat, of gesteente bestaande uit het mineraal dolomiet.</v>
+        <v>Intermediair intrusief stollingsgesteente.</v>
       </c>
       <c r="L104" t="str">
-        <v>dolomiet</v>
+        <v>dioriet</v>
       </c>
       <c r="M104" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -4980,40 +4980,40 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="B105" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C105" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="D105" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="E105" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="F105" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/diorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
       </c>
       <c r="G105" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.dr</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ev</v>
       </c>
       <c r="H105" t="str">
-        <v>Intermediair intrusief stollingsgesteente.</v>
+        <v>Gesteente of mineraal ontstaan door indamping waarbij mineralen en zouten neerslaan na verzadiging in water.</v>
       </c>
       <c r="I105" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J105" t="str">
-        <v>DR</v>
+        <v>EV</v>
       </c>
       <c r="K105" t="str">
-        <v>Intermediair intrusief stollingsgesteente.</v>
+        <v>Gesteente of mineraal ontstaan door indamping waarbij mineralen en zouten neerslaan na verzadiging in water.</v>
       </c>
       <c r="L105" t="str">
-        <v>dioriet</v>
+        <v>evaporiet</v>
       </c>
       <c r="M105" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5024,40 +5024,40 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="B106" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C106" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="D106" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="E106" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="F106" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/evaporite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
       </c>
       <c r="G106" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ev</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fe</v>
       </c>
       <c r="H106" t="str">
-        <v>Gesteente of mineraal ontstaan door indamping waarbij mineralen en zouten neerslaan na verzadiging in water.</v>
+        <v>Chemisch element ijzer, kan oxideren of roesten in  de bodem en ondergrond, met een roestbruine kleur tot gevolg.</v>
       </c>
       <c r="I106" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J106" t="str">
-        <v>EV</v>
+        <v>FE</v>
       </c>
       <c r="K106" t="str">
-        <v>Gesteente of mineraal ontstaan door indamping waarbij mineralen en zouten neerslaan na verzadiging in water.</v>
+        <v>Chemisch element ijzer, kan oxideren of roesten in  de bodem en ondergrond, met een roestbruine kleur tot gevolg.</v>
       </c>
       <c r="L106" t="str">
-        <v>evaporiet</v>
+        <v>ijzer</v>
       </c>
       <c r="M106" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5068,40 +5068,40 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg</v>
       </c>
       <c r="B107" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C107" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="D107" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="E107" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
       </c>
       <c r="F107" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/iron|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe</v>
+        <v>null</v>
       </c>
       <c r="G107" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fe</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fg</v>
       </c>
       <c r="H107" t="str">
-        <v>Chemisch element ijzer, kan oxideren of roesten in  de bodem en ondergrond, met een roestbruine kleur tot gevolg.</v>
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 2.00-6.30 mm (ISO 14688), 2-4 mm (Granule: Udden-Wentworth), 2-5 mm (USDA Soil Classification).</v>
       </c>
       <c r="I107" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J107" t="str">
-        <v>FE</v>
+        <v>FG</v>
       </c>
       <c r="K107" t="str">
-        <v>Chemisch element ijzer, kan oxideren of roesten in  de bodem en ondergrond, met een roestbruine kleur tot gevolg.</v>
+        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 2.00-6.30 mm (ISO 14688), 2-4 mm (Granule: Udden-Wentworth), 2-5 mm (USDA Soil Classification).</v>
       </c>
       <c r="L107" t="str">
-        <v>ijzer</v>
+        <v>fijn grind</v>
       </c>
       <c r="M107" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5112,40 +5112,40 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="B108" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C108" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="D108" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="E108" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gravel</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="F108" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
       </c>
       <c r="G108" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fg</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fo</v>
       </c>
       <c r="H108" t="str">
-        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 2.00-6.30 mm (ISO 14688), 2-4 mm (Granule: Udden-Wentworth), 2-5 mm (USDA Soil Classification).</v>
+        <v>Sedimentair gesteente dat voor een belangrijk deel uit fosfaten bestaat.</v>
       </c>
       <c r="I108" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J108" t="str">
-        <v>FG</v>
+        <v>FO</v>
       </c>
       <c r="K108" t="str">
-        <v>Grofkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie: 2.00-6.30 mm (ISO 14688), 2-4 mm (Granule: Udden-Wentworth), 2-5 mm (USDA Soil Classification).</v>
+        <v>Sedimentair gesteente dat voor een belangrijk deel uit fosfaten bestaat.</v>
       </c>
       <c r="L108" t="str">
-        <v>fijn grind</v>
+        <v>fosforiet</v>
       </c>
       <c r="M108" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5156,40 +5156,40 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fs</v>
       </c>
       <c r="B109" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C109" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
+        <v>null</v>
       </c>
       <c r="D109" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
+        <v>null</v>
       </c>
       <c r="E109" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
+        <v>null</v>
       </c>
       <c r="F109" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phosphorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo</v>
+        <v>null</v>
       </c>
       <c r="G109" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fo</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fs</v>
       </c>
       <c r="H109" t="str">
-        <v>Sedimentair gesteente dat voor een belangrijk deel uit fosfaten bestaat.</v>
+        <v>Fossielen zijn de resten van dieren en planten die duizenden tot honderden miljoenen jaren geleden stierven en bewaard bleven in het gesteente of in de sedimenten. Wat gevonden wordt als fossiel, is in veel gevallen slechts een skeletdeel of een afdruk van de oorspronkelijke dieren of planten.</v>
       </c>
       <c r="I109" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J109" t="str">
-        <v>FO</v>
+        <v>FS</v>
       </c>
       <c r="K109" t="str">
-        <v>Sedimentair gesteente dat voor een belangrijk deel uit fosfaten bestaat.</v>
+        <v>Fossielen zijn de resten van dieren en planten die duizenden tot honderden miljoenen jaren geleden stierven en bewaard bleven in het gesteente of in de sedimenten. Wat gevonden wordt als fossiel, is in veel gevallen slechts een skeletdeel of een afdruk van de oorspronkelijke dieren of planten.</v>
       </c>
       <c r="L109" t="str">
-        <v>fosforiet</v>
+        <v>fossielen</v>
       </c>
       <c r="M109" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5200,40 +5200,40 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fs</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="B110" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C110" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="D110" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="E110" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="F110" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
       </c>
       <c r="G110" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fs</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fy</v>
       </c>
       <c r="H110" t="str">
-        <v>Fossielen zijn de resten van dieren en planten die duizenden tot honderden miljoenen jaren geleden stierven en bewaard bleven in het gesteente of in de sedimenten. Wat gevonden wordt als fossiel, is in veel gevallen slechts een skeletdeel of een afdruk van de oorspronkelijke dieren of planten.</v>
+        <v>Metamorfe vorm van kleisteen, verder geëvolueerd dan leisteen.</v>
       </c>
       <c r="I110" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J110" t="str">
-        <v>FS</v>
+        <v>FY</v>
       </c>
       <c r="K110" t="str">
-        <v>Fossielen zijn de resten van dieren en planten die duizenden tot honderden miljoenen jaren geleden stierven en bewaard bleven in het gesteente of in de sedimenten. Wat gevonden wordt als fossiel, is in veel gevallen slechts een skeletdeel of een afdruk van de oorspronkelijke dieren of planten.</v>
+        <v>Metamorfe vorm van kleisteen, verder geëvolueerd dan leisteen.</v>
       </c>
       <c r="L110" t="str">
-        <v>fossielen</v>
+        <v>fylliet</v>
       </c>
       <c r="M110" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5244,40 +5244,40 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz</v>
       </c>
       <c r="B111" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C111" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="D111" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="E111" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="F111" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/phyllite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy</v>
+        <v>null</v>
       </c>
       <c r="G111" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fy</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fz</v>
       </c>
       <c r="H111" t="str">
-        <v>Metamorfe vorm van kleisteen, verder geëvolueerd dan leisteen.</v>
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.063-0.200 mm (ISO 14688), 0.125-0.200 mm (ISO 11277), 0.125-0.250 mm (Udden-Wentworth), 0.105-0.150 mm (Belgische bodemclassificatie met daarnaast ook uiterst fijn zand (0.050-0.075mm) en zeer fijn zand 0.075-0.105 mm) en matig fijn zand (0.150-0.210mm))</v>
       </c>
       <c r="I111" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J111" t="str">
-        <v>FY</v>
+        <v>FZ</v>
       </c>
       <c r="K111" t="str">
-        <v>Metamorfe vorm van kleisteen, verder geëvolueerd dan leisteen.</v>
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.063-0.200 mm (ISO 14688), 0.125-0.200 mm (ISO 11277), 0.125-0.250 mm (Udden-Wentworth), 0.105-0.150 mm (Belgische bodemclassificatie met daarnaast ook uiterst fijn zand (0.050-0.075mm) en zeer fijn zand 0.075-0.105 mm) en matig fijn zand (0.150-0.210mm))</v>
       </c>
       <c r="L111" t="str">
-        <v>fylliet</v>
+        <v>fijn zand</v>
       </c>
       <c r="M111" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5288,40 +5288,40 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="B112" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C112" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="D112" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="E112" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="F112" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
       </c>
       <c r="G112" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.fz</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ga</v>
       </c>
       <c r="H112" t="str">
-        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.063-0.200 mm (ISO 14688), 0.125-0.200 mm (ISO 11277), 0.125-0.250 mm (Udden-Wentworth), 0.105-0.150 mm (Belgische bodemclassificatie met daarnaast ook uiterst fijn zand (0.050-0.075mm) en zeer fijn zand 0.075-0.105 mm) en matig fijn zand (0.150-0.210mm))</v>
+        <v>Door menselijke activiteit verstoord sediment.</v>
       </c>
       <c r="I112" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J112" t="str">
-        <v>FZ</v>
+        <v>GA</v>
       </c>
       <c r="K112" t="str">
-        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.063-0.200 mm (ISO 14688), 0.125-0.200 mm (ISO 11277), 0.125-0.250 mm (Udden-Wentworth), 0.105-0.150 mm (Belgische bodemclassificatie met daarnaast ook uiterst fijn zand (0.050-0.075mm) en zeer fijn zand 0.075-0.105 mm) en matig fijn zand (0.150-0.210mm))</v>
+        <v>Door menselijke activiteit verstoord sediment.</v>
       </c>
       <c r="L112" t="str">
-        <v>fijn zand</v>
+        <v>geroerd / gestoord</v>
       </c>
       <c r="M112" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5332,40 +5332,40 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="B113" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C113" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="D113" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="E113" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="F113" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/anthropogenicMaterial|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
       </c>
       <c r="G113" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ga</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gb</v>
       </c>
       <c r="H113" t="str">
-        <v>Door menselijke activiteit verstoord sediment.</v>
+        <v>Mafisch intrusief stollingsgesteente, dieptegesteente.</v>
       </c>
       <c r="I113" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J113" t="str">
-        <v>GA</v>
+        <v>GB</v>
       </c>
       <c r="K113" t="str">
-        <v>Door menselijke activiteit verstoord sediment.</v>
+        <v>Mafisch intrusief stollingsgesteente, dieptegesteente.</v>
       </c>
       <c r="L113" t="str">
-        <v>geroerd / gestoord</v>
+        <v>gabbro</v>
       </c>
       <c r="M113" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5376,40 +5376,40 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="B114" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C114" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="D114" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="E114" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="F114" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gabbro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
       </c>
       <c r="G114" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gb</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gd</v>
       </c>
       <c r="H114" t="str">
-        <v>Mafisch intrusief stollingsgesteente, dieptegesteente.</v>
+        <v>Felsisch intrusief gesteente, tussen graniet en dioriet.</v>
       </c>
       <c r="I114" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J114" t="str">
-        <v>GB</v>
+        <v>GD</v>
       </c>
       <c r="K114" t="str">
-        <v>Mafisch intrusief stollingsgesteente, dieptegesteente.</v>
+        <v>Felsisch intrusief gesteente, tussen graniet en dioriet.</v>
       </c>
       <c r="L114" t="str">
-        <v>gabbro</v>
+        <v>granodioriet</v>
       </c>
       <c r="M114" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5420,40 +5420,40 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ge</v>
       </c>
       <c r="B115" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C115" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
       </c>
       <c r="D115" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
       </c>
       <c r="E115" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
       </c>
       <c r="F115" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granodiorite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd</v>
+        <v>null</v>
       </c>
       <c r="G115" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gd</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ge</v>
       </c>
       <c r="H115" t="str">
-        <v>Felsisch intrusief gesteente, tussen graniet en dioriet.</v>
+        <v>Metamorf gesteente met goed ontwikkelde splijting.</v>
       </c>
       <c r="I115" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J115" t="str">
-        <v>GD</v>
+        <v>GE</v>
       </c>
       <c r="K115" t="str">
-        <v>Felsisch intrusief gesteente, tussen graniet en dioriet.</v>
+        <v>Metamorf gesteente met goed ontwikkelde splijting.</v>
       </c>
       <c r="L115" t="str">
-        <v>granodioriet</v>
+        <v>gespleten metamorf</v>
       </c>
       <c r="M115" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5646,22 +5646,22 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C120" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="D120" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="E120" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/metamorphicRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="F120" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm</v>
       </c>
       <c r="G120" t="str">
         <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gm</v>
       </c>
       <c r="H120" t="str">
-        <v>Metamorf gesteente met goed ontwikkelde splijting.</v>
+        <v>Mica's, een groep van plaatvormige fylosilicaatmineralen.</v>
       </c>
       <c r="I120" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5670,10 +5670,10 @@
         <v>GM</v>
       </c>
       <c r="K120" t="str">
-        <v>Metamorf gesteente met goed ontwikkelde splijting.</v>
+        <v>Mica's, een groep van plaatvormige fylosilicaatmineralen.</v>
       </c>
       <c r="L120" t="str">
-        <v>gespleten metamorf</v>
+        <v>glimmers</v>
       </c>
       <c r="M120" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5684,40 +5684,40 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="B121" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C121" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="D121" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="E121" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="F121" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/mica|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
       </c>
       <c r="G121" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gm2</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gn</v>
       </c>
       <c r="H121" t="str">
-        <v>Mica's, een groep van plaatvormige fylosilicaatmineralen.</v>
+        <v>Metamorf gesteente met geband uiterlijk, oorspronkelijk zandsteen of graniet.</v>
       </c>
       <c r="I121" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J121" t="str">
-        <v>GM2</v>
+        <v>GN</v>
       </c>
       <c r="K121" t="str">
-        <v>Mica's, een groep van plaatvormige fylosilicaatmineralen.</v>
+        <v>Metamorf gesteente met geband uiterlijk, oorspronkelijk zandsteen of graniet.</v>
       </c>
       <c r="L121" t="str">
-        <v>glimmers</v>
+        <v>gneis</v>
       </c>
       <c r="M121" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5728,40 +5728,40 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="B122" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C122" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="D122" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="E122" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="F122" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/gneiss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
       </c>
       <c r="G122" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gn</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gr</v>
       </c>
       <c r="H122" t="str">
-        <v>Metamorf gesteente met geband uiterlijk, oorspronkelijk zandsteen of graniet.</v>
+        <v>Felsisch intrusief gesteente, dieptegesteente.</v>
       </c>
       <c r="I122" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J122" t="str">
-        <v>GN</v>
+        <v>GR</v>
       </c>
       <c r="K122" t="str">
-        <v>Metamorf gesteente met geband uiterlijk, oorspronkelijk zandsteen of graniet.</v>
+        <v>Felsisch intrusief gesteente, dieptegesteente.</v>
       </c>
       <c r="L122" t="str">
-        <v>gneis</v>
+        <v>graniet</v>
       </c>
       <c r="M122" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5772,40 +5772,40 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="B123" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C123" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="D123" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="E123" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="F123" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/granite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
       </c>
       <c r="G123" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gr</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gs</v>
       </c>
       <c r="H123" t="str">
-        <v>Felsisch intrusief gesteente, dieptegesteente.</v>
+        <v>Metamorf massief gesteente, gevormd onder gemiddelde druk en temperatuur, rijk aan groene mineralen epidoot, chloriet en chloritoid.</v>
       </c>
       <c r="I123" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J123" t="str">
-        <v>GR</v>
+        <v>GS</v>
       </c>
       <c r="K123" t="str">
-        <v>Felsisch intrusief gesteente, dieptegesteente.</v>
+        <v>Metamorf massief gesteente, gevormd onder gemiddelde druk en temperatuur, rijk aan groene mineralen epidoot, chloriet en chloritoid.</v>
       </c>
       <c r="L123" t="str">
-        <v>graniet</v>
+        <v>groensteen</v>
       </c>
       <c r="M123" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5816,40 +5816,40 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz</v>
       </c>
       <c r="B124" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C124" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="D124" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="E124" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
       </c>
       <c r="F124" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/chloriteActinoliteEpidoteMetamorphicRock|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs</v>
+        <v>null</v>
       </c>
       <c r="G124" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gs</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gz</v>
       </c>
       <c r="H124" t="str">
-        <v>Metamorf massief gesteente, gevormd onder gemiddelde druk en temperatuur, rijk aan groene mineralen epidoot, chloriet en chloritoid.</v>
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.630-2.000 mm (ISO 14688), 0.630-1.250 mm (ISO 11277), 0.500-1.000 mm (Udden-Wentworth), 0.300-0.420 mm (Belgische bodemclassificatie met daarnaast matig grof zand (0.210-0.300mm), zeer grof zand (0.420-1mm) en uiterst grof zand (1-2mm))</v>
       </c>
       <c r="I124" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J124" t="str">
-        <v>GS</v>
+        <v>GZ</v>
       </c>
       <c r="K124" t="str">
-        <v>Metamorf massief gesteente, gevormd onder gemiddelde druk en temperatuur, rijk aan groene mineralen epidoot, chloriet en chloritoid.</v>
+        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.630-2.000 mm (ISO 14688), 0.630-1.250 mm (ISO 11277), 0.500-1.000 mm (Udden-Wentworth), 0.300-0.420 mm (Belgische bodemclassificatie met daarnaast matig grof zand (0.210-0.300mm), zeer grof zand (0.420-1mm) en uiterst grof zand (1-2mm))</v>
       </c>
       <c r="L124" t="str">
-        <v>groensteen</v>
+        <v>grof zand</v>
       </c>
       <c r="M124" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5860,40 +5860,40 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="B125" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C125" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="D125" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="E125" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/sand</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="F125" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
       </c>
       <c r="G125" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.gz</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ha</v>
       </c>
       <c r="H125" t="str">
-        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.630-2.000 mm (ISO 14688), 0.630-1.250 mm (ISO 11277), 0.500-1.000 mm (Udden-Wentworth), 0.300-0.420 mm (Belgische bodemclassificatie met daarnaast matig grof zand (0.210-0.300mm), zeer grof zand (0.420-1mm) en uiterst grof zand (1-2mm))</v>
+        <v>Mineraal steenzout (NaCl).</v>
       </c>
       <c r="I125" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J125" t="str">
-        <v>GZ</v>
+        <v>HA</v>
       </c>
       <c r="K125" t="str">
-        <v>Sediment met specifieke korrelgroottes die kunnen verschillen al naar gelang de gevolgde classificatie: 0.630-2.000 mm (ISO 14688), 0.630-1.250 mm (ISO 11277), 0.500-1.000 mm (Udden-Wentworth), 0.300-0.420 mm (Belgische bodemclassificatie met daarnaast matig grof zand (0.210-0.300mm), zeer grof zand (0.420-1mm) en uiterst grof zand (1-2mm))</v>
+        <v>Mineraal steenzout (NaCl).</v>
       </c>
       <c r="L125" t="str">
-        <v>grof zand</v>
+        <v>haliet</v>
       </c>
       <c r="M125" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5904,40 +5904,40 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="B126" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C126" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="D126" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="E126" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="F126" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/rockSalt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha</v>
+        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
       </c>
       <c r="G126" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ha</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.he</v>
       </c>
       <c r="H126" t="str">
-        <v>Mineraal steenzout (NaCl).</v>
+        <v>IJzeroxide mineraal (Fe2O3) met rode, roestbruine tot zwarte kleur.</v>
       </c>
       <c r="I126" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J126" t="str">
-        <v>HA</v>
+        <v>HE</v>
       </c>
       <c r="K126" t="str">
-        <v>Mineraal steenzout (NaCl).</v>
+        <v>IJzeroxide mineraal (Fe2O3) met rode, roestbruine tot zwarte kleur.</v>
       </c>
       <c r="L126" t="str">
-        <v>haliet</v>
+        <v>hematiet</v>
       </c>
       <c r="M126" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5948,40 +5948,40 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hk</v>
       </c>
       <c r="B127" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C127" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
+        <v>null</v>
       </c>
       <c r="D127" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
+        <v>null</v>
       </c>
       <c r="E127" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
+        <v>null</v>
       </c>
       <c r="F127" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/CommodityCodeValue/hematite|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he</v>
+        <v>null</v>
       </c>
       <c r="G127" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.he</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hk</v>
       </c>
       <c r="H127" t="str">
-        <v>IJzeroxide mineraal (Fe2O3) met rode, roestbruine tot zwarte kleur.</v>
+        <v>Verkoold hout dat nagenoeg uit zuiver koolstof bestaat.</v>
       </c>
       <c r="I127" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J127" t="str">
-        <v>HE</v>
+        <v>HK</v>
       </c>
       <c r="K127" t="str">
-        <v>IJzeroxide mineraal (Fe2O3) met rode, roestbruine tot zwarte kleur.</v>
+        <v>Verkoold hout dat nagenoeg uit zuiver koolstof bestaat.</v>
       </c>
       <c r="L127" t="str">
-        <v>hematiet</v>
+        <v>houtskool</v>
       </c>
       <c r="M127" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hk</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht</v>
       </c>
       <c r="B128" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
@@ -6010,22 +6010,22 @@
         <v>null</v>
       </c>
       <c r="G128" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hk</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ht</v>
       </c>
       <c r="H128" t="str">
-        <v>Verkoold hout dat nagenoeg uit zuiver koolstof bestaat.</v>
+        <v>Resten van hout zoals delen van boomstammen of takken.</v>
       </c>
       <c r="I128" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J128" t="str">
-        <v>HK</v>
+        <v>HT</v>
       </c>
       <c r="K128" t="str">
-        <v>Verkoold hout dat nagenoeg uit zuiver koolstof bestaat.</v>
+        <v>Resten van hout zoals delen van boomstammen of takken.</v>
       </c>
       <c r="L128" t="str">
-        <v>houtskool</v>
+        <v>houtresten</v>
       </c>
       <c r="M128" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -6036,40 +6036,40 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu</v>
       </c>
       <c r="B129" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C129" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="D129" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="E129" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="F129" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
       </c>
       <c r="G129" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ht</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hu</v>
       </c>
       <c r="H129" t="str">
-        <v>Resten van hout zoals delen van boomstammen of takken.</v>
+        <v>Organische stof</v>
       </c>
       <c r="I129" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J129" t="str">
-        <v>HT</v>
+        <v>HU</v>
       </c>
       <c r="K129" t="str">
-        <v>Resten van hout zoals delen van boomstammen of takken.</v>
+        <v>Organische stof</v>
       </c>
       <c r="L129" t="str">
-        <v>houtresten</v>
+        <v>humus</v>
       </c>
       <c r="M129" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -6080,40 +6080,40 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig</v>
       </c>
       <c r="B130" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C130" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
       </c>
       <c r="D130" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
       </c>
       <c r="E130" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/topsoil|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
       </c>
       <c r="F130" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|http://inspire.ec.europa.eu/codelist/MineralDepositGroupValue/organic|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om</v>
+        <v>null</v>
       </c>
       <c r="G130" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.hu</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ig</v>
       </c>
       <c r="H130" t="str">
-        <v>Organische stof</v>
+        <v>Gesteente gevormd door de ondergrondse stolling van magma.</v>
       </c>
       <c r="I130" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J130" t="str">
-        <v>HU</v>
+        <v>IG</v>
       </c>
       <c r="K130" t="str">
-        <v>Organische stof</v>
+        <v>Gesteente gevormd door de ondergrondse stolling van magma.</v>
       </c>
       <c r="L130" t="str">
-        <v>humus</v>
+        <v>intrusief gesteente</v>
       </c>
       <c r="M130" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -6124,40 +6124,40 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io</v>
       </c>
       <c r="B131" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C131" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
       </c>
       <c r="D131" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
       </c>
       <c r="E131" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/igneousRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
       </c>
       <c r="F131" t="str">
         <v>null</v>
       </c>
       <c r="G131" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ig</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.io</v>
       </c>
       <c r="H131" t="str">
-        <v>Gesteente gevormd door de ondergrondse stolling van magma.</v>
+        <v>Gesteente met een oölietische textuur, aaneengekit door ijzeroxiden.</v>
       </c>
       <c r="I131" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J131" t="str">
-        <v>IG</v>
+        <v>IO</v>
       </c>
       <c r="K131" t="str">
-        <v>Gesteente gevormd door de ondergrondse stolling van magma.</v>
+        <v>Gesteente met een oölietische textuur, aaneengekit door ijzeroxiden.</v>
       </c>
       <c r="L131" t="str">
-        <v>intrusief gesteente</v>
+        <v>ijzerooliet</v>
       </c>
       <c r="M131" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -6168,40 +6168,40 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="B132" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C132" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="D132" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="E132" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/ironRichSedimentaryRock</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="F132" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
       </c>
       <c r="G132" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.io</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ka</v>
       </c>
       <c r="H132" t="str">
-        <v>Gesteente met een oölietische textuur, aaneengekit door ijzeroxiden.</v>
+        <v>Calciumcarbonaat.</v>
       </c>
       <c r="I132" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J132" t="str">
-        <v>IO</v>
+        <v>KA</v>
       </c>
       <c r="K132" t="str">
-        <v>Gesteente met een oölietische textuur, aaneengekit door ijzeroxiden.</v>
+        <v>Calciumcarbonaat.</v>
       </c>
       <c r="L132" t="str">
-        <v>ijzerooliet</v>
+        <v>kalk</v>
       </c>
       <c r="M132" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -6212,40 +6212,40 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb</v>
       </c>
       <c r="B133" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C133" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
       </c>
       <c r="D133" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
       </c>
       <c r="E133" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
       </c>
       <c r="F133" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/calcareousCarbonateSediment|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka</v>
+        <v>null</v>
       </c>
       <c r="G133" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ka</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kb</v>
       </c>
       <c r="H133" t="str">
-        <v>Calciumcarbonaat.</v>
+        <v>Breccie hoofdzakelijk bestaande uit kalksteenfragmenten.</v>
       </c>
       <c r="I133" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J133" t="str">
-        <v>KA</v>
+        <v>KB</v>
       </c>
       <c r="K133" t="str">
-        <v>Calciumcarbonaat.</v>
+        <v>Breccie hoofdzakelijk bestaande uit kalksteenfragmenten.</v>
       </c>
       <c r="L133" t="str">
-        <v>kalk</v>
+        <v>kalksteenbreccie</v>
       </c>
       <c r="M133" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -6256,40 +6256,40 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc</v>
       </c>
       <c r="B134" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C134" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
+        <v>null</v>
       </c>
       <c r="D134" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
+        <v>null</v>
       </c>
       <c r="E134" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/breccia</v>
+        <v>null</v>
       </c>
       <c r="F134" t="str">
         <v>null</v>
       </c>
       <c r="G134" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kb</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kc</v>
       </c>
       <c r="H134" t="str">
-        <v>Breccie hoofdzakelijk bestaande uit kalksteenfragmenten.</v>
+        <v>Schiefergesteente dat een significante hoeveelheid kalk bevat.</v>
       </c>
       <c r="I134" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J134" t="str">
-        <v>KB</v>
+        <v>KC</v>
       </c>
       <c r="K134" t="str">
-        <v>Breccie hoofdzakelijk bestaande uit kalksteenfragmenten.</v>
+        <v>Schiefergesteente dat een significante hoeveelheid kalk bevat.</v>
       </c>
       <c r="L134" t="str">
-        <v>kalksteenbreccie</v>
+        <v>kalkschiefer</v>
       </c>
       <c r="M134" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -6300,40 +6300,40 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="B135" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C135" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="D135" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="E135" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="F135" t="str">
-        <v>null</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
       </c>
       <c r="G135" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kc</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kl</v>
       </c>
       <c r="H135" t="str">
-        <v>Schiefergesteente dat een significante hoeveelheid kalk bevat.</v>
+        <v>Fijnkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie:  kleiner dan 0.002 mm (ISO 14688/ISO 11277/Belgische bodemclassificatie/USDA soil classification), kleiner dan 0.004 mm (Udden-Wentworth)</v>
       </c>
       <c r="I135" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J135" t="str">
-        <v>KC</v>
+        <v>KL</v>
       </c>
       <c r="K135" t="str">
-        <v>Schiefergesteente dat een significante hoeveelheid kalk bevat.</v>
+        <v>Fijnkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie:  kleiner dan 0.002 mm (ISO 14688/ISO 11277/Belgische bodemclassificatie/USDA soil classification), kleiner dan 0.004 mm (Udden-Wentworth)</v>
       </c>
       <c r="L135" t="str">
-        <v>kalkschiefer</v>
+        <v>klei</v>
       </c>
       <c r="M135" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -6344,40 +6344,40 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="B136" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C136" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="D136" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="E136" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="F136" t="str">
-        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/clay|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl</v>
+        <v>http://inspire.ec.europa.eu/codelist/LithologyValue/bituminousCoal|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko</v>
       </c>
       <c r="G136" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.kl</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.hoofdnaam.ko</v>
       </c>
       <c r="H136" t="str">
-        <v>Fijnkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie:  kleiner dan 0.002 mm (ISO 14688/ISO 11277/Belgische bodemclassificatie/USDA soil classification), kleiner dan 0.004 mm (Udden-Wentworth)</v>
+        <v>Gesteente hoofdzakelijk bestaande uit organisch materiaal, gevormd na diepe begraving onder hoge druk en temperatuur.</v>
       </c>
       <c r="I136" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
       </c>
       <c r="J136" t="str">
-        <v>KL</v>
+        <v>KO</v>
       </c>
       <c r="K136" t="str">
-        <v>Fijnkorrelig sediment waarvan de korrelgrootte kan verschillen al naar gelang de gevolgde classificatie:  kleiner dan 0.002 mm (ISO 14688/ISO 11277/Belgische bodemclassificatie/USDA soil classification), kleiner dan 0.004 mm (Udden-Wentworth)</v>
+        <v>Gesteente hoofdzakelijk bestaande uit organisch materiaal, gevormd na diepe begraving onder hoge druk en temperatuur.</v>
       </c>
       <c r="L136" t="str">
-        <v>klei</v>
+        <v>steenkool</v>
       </c>
       <c r="M136" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/hoofdnaam</v>
@@ -8979,7 +8979,7 @@
         <v>null</v>
       </c>
       <c r="N195" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm2|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co2|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ak|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/as|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/nu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xx</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/st|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/be|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ch|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/he|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fe|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/la|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/py|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/qu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ae|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sf|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sx|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ad|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/an|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/av|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/aw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ga|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ar|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/tu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ba|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/at|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ko|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ka|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/me|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ca|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ok|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ws|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/bt|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/co|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/da|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/do|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ev|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gb|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gn|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ah|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gi|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/so|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ig|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/vg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/dk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/li|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sd|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/io|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/lg|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ks|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ma|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ge|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mm|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ms|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/my|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ve|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fo|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kw|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/rv|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ro|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ha|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/gz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/mz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kz|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ps|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sy|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/se|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sh|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sr|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/le|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/si|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/zl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ss|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ls|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ta|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ts|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/af|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/om|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/pe|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ak|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/as|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/fs|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/hk|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/ht|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/kc|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/nu|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/sl|https://data.bodemenondergrond.vlaanderen.be/id/concept/hoofdnaam/xx</v>
       </c>
     </row>
     <row r="196">
